--- a/English/Super Memory/memory.xlsx
+++ b/English/Super Memory/memory.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3283FC-4CC9-422C-B4A3-A28F530104B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>no</t>
   </si>
@@ -737,20 +743,129 @@
   </si>
   <si>
     <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037125755&amp;di=8d0ece24303acb43f02929b47cc6e9d3&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.ph.126.net%2FAPEoKFxAp8NYA51sgDPtrg%3D%3D%2F3289598052818170342.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105303707&amp;di=afc28afe82cade8e3f7bc069a8673485&amp;imgtype=0&amp;src=http%3A%2F%2Fdpic.tiankong.com%2Fka%2Fes%2FQJ6440380497.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105406984&amp;di=7947eb3452504b7a6325e10d7949e623&amp;imgtype=0&amp;src=http%3A%2F%2Fpic3.16pic.com%2F00%2F07%2F65%2F16pic_765044_b.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105442663&amp;di=2a9f1599e1fad9b16b9ac8f5f58abfdb&amp;imgtype=0&amp;src=http%3A%2F%2Fpic3.16pic.com%2F00%2F07%2F65%2F16pic_765068_b.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105490878&amp;di=7630ba5af958ecef26cb2559bcdedc27&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201801%2F31%2F20180131225903_4skzR.jpeg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105482285&amp;di=8855fc0c3abfa4eb6a5c02ea90d68b57&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.zcool.cn%2Fcommunity%2F010086554418a20000019ae92dbe14.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105965955&amp;di=e0c84accee2fa3a92c5bd8067ef57670&amp;imgtype=0&amp;src=http%3A%2F%2Fn.sinaimg.cn%2Fsinacn10%2F400%2Fw600h600%2F20180914%2F7854-hiixpun8848807.gif</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106233050&amp;di=98027ae1f8b36cff810e0b2d8cf8650a&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.chinaadec.com%2FUploadFile%2Fimage%2F20150330%2F20150330163632_803.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106334345&amp;di=b37f9405eabbc7637021f900961f59ed&amp;imgtype=0&amp;src=http%3A%2F%2Fimg002.hc360.cn%2Fk3%2FM01%2FB6%2FC3%2FwKhQx1jPt8yECeUZAAAAALlh7RE115.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106412185&amp;di=ff466f1c93837f858b1643dbeb40b326&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.artsbj.com%2FUploadFiles%2F2015-04%2Fwyw%2F201504231543129153.png</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106535973&amp;di=f633527eeae4088b28ccf22195338ee9&amp;imgtype=0&amp;src=http%3A%2F%2Fimg2.myhsw.cn%2F2015-06-28%2Fz0b95c7p.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106642605&amp;di=5ea7cae9f75bec23addf5fab5257b1ad&amp;imgtype=0&amp;src=http%3A%2F%2Fi05.cztv.com%2Fcztv%2Fvms%2F2018%2F01%2F17%2F0e51e421ab784064bc58f1f8d9367117%2F8_640_400.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106703136&amp;di=6a1e43e9a0e8636db2c4b6a017cf7f7a&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201512%2F26%2F20151226193012_wez28.thumb.700_0.jpeg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106743512&amp;di=519c8687e8a8d0e9123f1699c31952ae&amp;imgtype=0&amp;src=http%3A%2F%2Fs11.sinaimg.cn%2Fmw690%2F002xnc8Szy77NrBHbZ04a%26690</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106840408&amp;di=d485dbdaa86fde56f08eea73cb040c33&amp;imgtype=0&amp;src=http%3A%2F%2Fp0.meituan.net%2Fdeal%2F__32762284__9238474.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106884688&amp;di=e2ae584e2805a5210437f67625a4d5fa&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FU7XDdXj97GugEOutAjLTRsia6jhPmME35goauTpkSEDlJ9iatZ7kqp7dOZDDQWUVlwHMwgfU5HuOO8yjWWrQCNSw%2F640%3Fwx_fmt%3Djpeg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106927988&amp;di=23a660d1e8a8c31b6552c5c66272933c&amp;imgtype=0&amp;src=http%3A%2F%2Fimage.game.uc.cn%2F2013%2F8%2F9%2F9289511.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106975799&amp;di=8d94162f17d58a84d89aeecf379a4f1c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.gtimg.com%2Frushidao%2Fpics%2Fhv1%2F81%2F21%2F1466%2F95332086.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107007195&amp;di=907862e921eac9c201da3d6c47ab4f57&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.ooopic.com%2F17%2F01%2F99%2F17019900-93b38a908214274d132052cc639edbdd.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107037950&amp;di=342aca65ce3135b6132af7fcc008ea5c&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F17%2F11%2F14%2F95890e982f5da0a5e37777195a5c8018.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107083419&amp;di=be8c7c9c9432c7bed5a9b6d78e41fa0d&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F16%2F08%2F11%2F1757ac4225aa35b.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ss1.bdstatic.com/70cFvXSh_Q1YnxGkpoWK1HF6hhy/it/u=1947783256,3643699783&amp;fm=26&amp;gp=0.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=681294974,3020569936&amp;fm=26&amp;gp=0.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107248961&amp;di=2e01d168d1f24eeed6a5a591f7620a36&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft1267%2F65%2F140049916%2F283105%2F3e2f25be%2F55030a7eN06945216.jpg%2521q70.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=799296892,927384394&amp;fm=26&amp;gp=0.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107375122&amp;di=d21f09dcc284b2a85a5d30e2aa1a906e&amp;imgtype=jpg&amp;src=http%3A%2F%2Fimg0.imgtn.bdimg.com%2Fit%2Fu%3D1041083175%2C2440403865%26fm%3D214%26gp%3D0.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107412048&amp;di=0a7634fd27179c849dc2b5fe8d605dbc&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F60%2F28%2F594d7147cb2cc_610.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563702206&amp;di=88a3f9d05e805d67a057687c4fa37052&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fwww.centralsolomon.com%2Fimages%2FTB16HrqFFXXXXajapXXXXXXXXXX_%21%210-item_pic.jpg_500x500.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107580001&amp;di=3a31b98ce663d51d01b74ad0e8b1de27&amp;imgtype=jpg&amp;src=http%3A%2F%2Fimg3.imgtn.bdimg.com%2Fit%2Fu%3D3131950238%2C3676379902%26fm%3D214%26gp%3D0.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107641627&amp;di=d89960e529a964da7f3c179c5c33b831&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.99114.com%2Fgroup1%2FM00%2F09%2F34%2FwKgGTFWWcneAHDCuAAI_vaXgugM426.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107695311&amp;di=20ab060afd8f651a4388bc420d84e6a2&amp;imgtype=0&amp;src=http%3A%2F%2Fpic2.16pic.com%2F00%2F11%2F97%2F16pic_1197205_b.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,14 +882,15 @@
     <font>
       <sz val="8.5"/>
       <name val="Fira Code"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,341 +898,27 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1124,251 +926,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1388,74 +951,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1713,26 +1233,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="12.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
-    <col min="6" max="16384" width="12.8888888888889" customWidth="1"/>
+    <col min="1" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3147,6 +2667,9 @@
       <c r="D63" s="4">
         <v>43659</v>
       </c>
+      <c r="E63" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="H63">
         <v>0</v>
       </c>
@@ -3167,6 +2690,12 @@
       <c r="D64" s="4">
         <v>43659</v>
       </c>
+      <c r="E64" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="H64">
         <v>0</v>
       </c>
@@ -3187,6 +2716,9 @@
       <c r="D65" s="4">
         <v>43659</v>
       </c>
+      <c r="E65" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="H65">
         <v>0</v>
       </c>
@@ -3207,6 +2739,12 @@
       <c r="D66" s="4">
         <v>43659</v>
       </c>
+      <c r="E66" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="H66">
         <v>0</v>
       </c>
@@ -3227,6 +2765,9 @@
       <c r="D67" s="4">
         <v>43659</v>
       </c>
+      <c r="E67" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="H67">
         <v>0</v>
       </c>
@@ -3247,6 +2788,12 @@
       <c r="D68" s="4">
         <v>43659</v>
       </c>
+      <c r="E68" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="H68">
         <v>0</v>
       </c>
@@ -3267,6 +2814,9 @@
       <c r="D69" s="4">
         <v>43659</v>
       </c>
+      <c r="E69" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="H69">
         <v>0</v>
       </c>
@@ -3287,6 +2837,12 @@
       <c r="D70" s="4">
         <v>43659</v>
       </c>
+      <c r="E70" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="H70">
         <v>0</v>
       </c>
@@ -3307,6 +2863,12 @@
       <c r="D71" s="4">
         <v>43659</v>
       </c>
+      <c r="E71" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="H71">
         <v>0</v>
       </c>
@@ -3327,6 +2889,12 @@
       <c r="D72" s="4">
         <v>43659</v>
       </c>
+      <c r="E72" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="H72">
         <v>0</v>
       </c>
@@ -3347,6 +2915,12 @@
       <c r="D73" s="4">
         <v>43659</v>
       </c>
+      <c r="E73" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="H73">
         <v>0</v>
       </c>
@@ -3367,6 +2941,12 @@
       <c r="D74" s="4">
         <v>43659</v>
       </c>
+      <c r="E74" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="H74">
         <v>0</v>
       </c>
@@ -3387,6 +2967,9 @@
       <c r="D75" s="4">
         <v>43659</v>
       </c>
+      <c r="E75" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="H75">
         <v>0</v>
       </c>
@@ -3407,6 +2990,9 @@
       <c r="D76" s="4">
         <v>43659</v>
       </c>
+      <c r="E76" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="H76">
         <v>0</v>
       </c>
@@ -3427,6 +3013,9 @@
       <c r="D77" s="4">
         <v>43659</v>
       </c>
+      <c r="E77" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="H77">
         <v>0</v>
       </c>
@@ -3447,6 +3036,9 @@
       <c r="D78" s="4">
         <v>43659</v>
       </c>
+      <c r="E78" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="H78">
         <v>0</v>
       </c>
@@ -3467,6 +3059,9 @@
       <c r="D79" s="4">
         <v>43659</v>
       </c>
+      <c r="E79" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="H79">
         <v>0</v>
       </c>
@@ -3487,6 +3082,12 @@
       <c r="D80" s="4">
         <v>43659</v>
       </c>
+      <c r="E80" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="H80">
         <v>0</v>
       </c>
@@ -3507,6 +3108,15 @@
       <c r="D81" s="4">
         <v>43659</v>
       </c>
+      <c r="E81" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="H81">
         <v>0</v>
       </c>
@@ -4297,72 +3907,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:9">
       <c r="A112" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" display="https://f12.baidu.com/it/u=273203883,1462337381&amp;fm=72"/>
-    <hyperlink ref="E23" r:id="rId2" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040003328&amp;di=5a0f4ed4bf3d79d8140f8e8e7aea1a80&amp;imgtype=0&amp;src=http%3A%2F%2Fb4-q.mafengwo.net%2Fs6%2FM00%2FE0%2F0D%2FwKgB4lJvvvyAGUiDACTyLRvKPQg21.jpeg"/>
-    <hyperlink ref="E108" r:id="rId3" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037892521&amp;di=eff8ea19469a30e75f9a187a07381c60&amp;imgtype=0&amp;src=http%3A%2F%2Fphoto.sohu.com%2F83%2F30%2FImg201653083.jpg"/>
-    <hyperlink ref="E107" r:id="rId4" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038046214&amp;di=5a115b2698adaa1b6602e167db7c9b7c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg10.360buyimg.com%2FpopWaterMark%2Fjfs%2Ft1408%2F4%2F164695253%2F303521%2F13f768fd%2F555fe39aNcb84c4f7.jpg"/>
-    <hyperlink ref="E106" r:id="rId5" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038244005&amp;di=fdc867769ac8085b901c64ae268b809a&amp;imgtype=0&amp;src=http%3A%2F%2Fl.b2b168.com%2F2019%2F02%2F25%2F15%2F201902251525046234374.jpg"/>
-    <hyperlink ref="E105" r:id="rId6" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038589288&amp;di=df994b341aa44fb619cbe56d670a9229&amp;imgtype=0&amp;src=http%3A%2F%2Ffiles.toodaylab.com%2F2014%2F08%2FAppleStore_secret_20140807012755_08.jpg"/>
-    <hyperlink ref="E104" r:id="rId7" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038891671&amp;di=feecce43e34bd9a01df53c1f5c359a00&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F16%2F08%2F23%2F2057bc41625fdd9.jpg%2521%2Ffwfh%2F804x804%2Fquality%2F90%2Funsharp%2Ftrue%2Fcompress%2Ftrue"/>
-    <hyperlink ref="E103" r:id="rId8" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039144849&amp;di=9da6cc14299916f80f65b01128dbc04b&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F16%2F06%2F23%2F17576bb0981e413.jpg"/>
-    <hyperlink ref="E102" r:id="rId9" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039391310&amp;di=87c0629c01f491d47b791d6090e804ee&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.90sjimg.com%2Fdesign%2F01%2F30%2F40%2F09%2Fs_1024_58ca2cc728552.png"/>
-    <hyperlink ref="E101" r:id="rId10" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039614890&amp;di=6be907b44c03dad3a8913d1817931b27&amp;imgtype=0&amp;src=http%3A%2F%2Fimages.xuejuzi.cn%2F1702%2F1_170212111029_1.jpg"/>
-    <hyperlink ref="E100" r:id="rId11" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039695319&amp;di=cd958e4d0acbffbb6f31ac05b87ece5d&amp;imgtype=0&amp;src=http%3A%2F%2Fp2.ifengimg.com%2Ffck%2F2017_44%2Ffadf3ff38173949_w720_h480.jpg"/>
-    <hyperlink ref="E99" r:id="rId12" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040216519&amp;di=abdc9279011661bee92138e813078ee8&amp;imgtype=0&amp;src=http%3A%2F%2Fp2.qhimg.com%2Ft01a1bc43a2ddeba8eb.jpg"/>
-    <hyperlink ref="E98" r:id="rId13" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040338919&amp;di=0244dfad2849db7ce104ef5e43fbe997&amp;imgtype=0&amp;src=http%3A%2F%2Fhbimg.b0.upaiyun.com%2F6125f48517bdc3b057b292c68119af33cbcce0dc16138-TRwUAI_fw658"/>
-    <hyperlink ref="E97" r:id="rId14" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040466310&amp;di=8a8189f848a4069863991ae498dc3ead&amp;imgtype=0&amp;src=http%3A%2F%2Fattach2.scimg.cn%2Fforum%2F201511%2F26%2F141530b5z57o751biett73.jpg"/>
-    <hyperlink ref="E96" r:id="rId15" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040716378&amp;di=4410a135d40e1622ac0a169c1a444d7e&amp;imgtype=0&amp;src=http%3A%2F%2Fimage1.suning.cn%2Fuimg%2Fb2c%2Fnewcatentries%2F0070165044-000000000640075169_1_800x800.jpg"/>
-    <hyperlink ref="E95" r:id="rId16" display="https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=1388032079,1990918474&amp;fm=26&amp;gp=0.jpg"/>
-    <hyperlink ref="E94" r:id="rId17" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041095550&amp;di=ddfb45532bdd17691648b49f6749568f&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.juimg.com%2Ftuku%2Fyulantu%2F140706%2F330708-140F614323399.jpg"/>
-    <hyperlink ref="E93" r:id="rId18" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041370276&amp;di=3bb52106fe7622ced02f7ca653951d8b&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.gtimg.com%2Fsports%2Fpics%2Fhv1%2F120%2F182%2F2285%2F148628655.jpg"/>
-    <hyperlink ref="E92" r:id="rId19" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041490988&amp;di=3583d01f97629799e10ec7c7d8ce289f&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.t-biao.com%2FtubiaoaHR0cHM6Ly9pbWcuYWxpY2RuLmNvbS90ZnNjb20vaTEvMjg1MTU2NzkyNC9UQjJzYkYxa2RGb3B1RmpTWkZIWFhiU2xYWGFfISEyODUxNTY3OTI0JDk.jpg"/>
-    <hyperlink ref="E91" r:id="rId20" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563636281&amp;di=af9a0214b6558c66bfa89c40c87e5de9&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fs11.sinaimg.cn%2Fmw690%2F005NJY58zy7ep6lwDkm5a%26amp%3B690"/>
-    <hyperlink ref="E90" r:id="rId21" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041794404&amp;di=0a0c11c5830dcb514ca8674653682395&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FuiaJZ8mDjtLsfHGyJuficS7JxuvQuickicibk3Gf5uaiaBjHvVYjKaF2tqXMsKQMX9icWUjmLozibL3Tw79EojkudIqqow%2F640%3Fwx_fmt%3Djpeg"/>
-    <hyperlink ref="E89" r:id="rId22" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041830764&amp;di=652478b8373791a6f3253ce97060455d&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201611%2F08%2F20161108100534_kWGmY.jpeg"/>
-    <hyperlink ref="E88" r:id="rId23" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041920588&amp;di=0a121b2e23e8bddbe756b57ec5ad0144&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F03%2F74%2F14%2F5bf38b1b8a6f4_610.jpg"/>
-    <hyperlink ref="E87" r:id="rId24" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042062904&amp;di=c26596bf5bb690b8d18e11ac2e565fd9&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.mp.itc.cn%2Fupload%2F20161116%2F888ad559a91e47529566b4f7cee43010_th.jpg"/>
-    <hyperlink ref="E86" r:id="rId25" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042168383&amp;di=8a7738ac73d024b11f7cd9dfb80d0243&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.yjsmodel.com%2Fbookpic%2F20113112182517580.jpg"/>
-    <hyperlink ref="E85" r:id="rId26" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042229191&amp;di=ca034a51562ecc2cd214c60fbafdec02&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F16%2F11%2F25%2F8de78bd322aaa40524a1d32903bcc440.jpg"/>
-    <hyperlink ref="E84" r:id="rId27" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042321443&amp;di=e3f004cd44f0e9b72fd2311671b43b8a&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F18%2F01%2F25%2Fa1c4b8bdc908582dfc02ec06b42452c6.jpg%2521%2Ffwfh%2F804x819%2Fquality%2F90%2Funsharp%2Ftrue%2Fcompress%2Ftrue"/>
-    <hyperlink ref="E83" r:id="rId28" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042607884&amp;di=a344cf03c078bc4ddcb51f79389b2859&amp;imgtype=0&amp;src=http%3A%2F%2Fimg3.qjy168.com%2Fprovide%2F2016%2F02%2F04%2F6065074_20160204091410.JPG"/>
-    <hyperlink ref="E82" r:id="rId29" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042711843&amp;di=624541e92e1234a8c2f553311fa00d84&amp;imgtype=0&amp;src=http%3A%2F%2Fimg4q.duitang.com%2Fuploads%2Fitem%2F201505%2F02%2F20150502160543_5PTfa.thumb.700_0.jpeg"/>
-    <hyperlink ref="F111" r:id="rId30" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037029237&amp;di=178f4a15213c3bfe9bee200a903f93af&amp;imgtype=0&amp;src=http%3A%2F%2Fimg4q.duitang.com%2Fuploads%2Fitem%2F201410%2F20%2F20141020212114_4UA8C.jpeg"/>
-    <hyperlink ref="F110" r:id="rId31" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037215289&amp;di=e75f11bb17d1df0b9a5469a153ed094f&amp;imgtype=0&amp;src=http%3A%2F%2Fimages.yiwufair.com%2FProductImage%2F2012%2F08%2F451130161726351.jpg"/>
-    <hyperlink ref="F109" r:id="rId32" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037360444&amp;di=9f4624e63dd1fb8be0b29a3dcd2b5e26&amp;imgtype=0&amp;src=http%3A%2F%2Fimg010.hc360.cn%2Fg3%2FM06%2F21%2FEB%2FwKhQvVKggQmEDSrcAAAAAA5LV44299.jpg"/>
-    <hyperlink ref="F108" r:id="rId33" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037938085&amp;di=52ae8e954e013b3f98e72d1376fc8cdd&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fq_70%2Cc_zoom%2Cw_640%2Fimages%2F20171210%2Fbbede55cf86f4b01b7888442f0081f94.jpeg"/>
-    <hyperlink ref="F107" r:id="rId34" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038083578&amp;di=4442a439ca032ddb18b8958f1cfaf6d6&amp;imgtype=0&amp;src=http%3A%2F%2Fpic15.nipic.com%2F20110629%2F3970232_211356228000_2.jpg"/>
-    <hyperlink ref="F106" r:id="rId35" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038289956&amp;di=821e388ffc6ea03685308a5fdeb36d20&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.juimg.com%2Ftuku%2Fyulantu%2F121211%2F267866-12121115203282.jpg"/>
-    <hyperlink ref="F105" r:id="rId36" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038656219&amp;di=5c88d8db1cabc7d5a4b5d4e972138131&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft166%2F364%2F1241533827%2F129635%2Fe70a63f2%2F53a7f115N97cb5c4a.jpg%2521q70.jpg"/>
-    <hyperlink ref="F104" r:id="rId37" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038989487&amp;di=7b7f9746308d30f2e56d0ad0d6967b1c&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F43%2F18%2F59277f5f938c8_610.jpg"/>
-    <hyperlink ref="F103" r:id="rId38" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039192194&amp;di=937ff6aa613b78686d497d3f78392147&amp;imgtype=0&amp;src=http%3A%2F%2Fpic64.nipic.com%2Ffile%2F20150417%2F20800794_151641392000_2.jpg"/>
-    <hyperlink ref="F102" r:id="rId39" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039577012&amp;di=cca0e8e51a4f297f2ff32bdf36f8a35e&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft199%2F362%2F807137060%2F198346%2F12026748%2F53994ac6N6dfc32fa.jpg%2521q70.jpg"/>
-    <hyperlink ref="F100" r:id="rId40" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039888822&amp;di=64aa0fde188ec26fa385039ca4443d2c&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F02%2F07%2F27%2F599e4077ea95a_610.jpg"/>
-    <hyperlink ref="F98" r:id="rId41" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040380458&amp;di=80f3b68bbc3ea67b68e0afd9fc3679d5&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.juimg.com%2F180410%2F330863-1P410215R924.jpg"/>
-    <hyperlink ref="F97" r:id="rId42" display="https://ss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=3650368633,181425310&amp;fm=26&amp;gp=0.jpg"/>
-    <hyperlink ref="F96" r:id="rId43" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040816418&amp;di=26bf4088015dea43b01f768e4d38442f&amp;imgtype=0&amp;src=http%3A%2F%2Fpic6.58cdn.com.cn%2Fzhuanzh%2Fn_v267e3cf2d805e454ca920f51a7bd2d688.jpg%3Fw%3D750%26h%3D0"/>
-    <hyperlink ref="F95" r:id="rId44" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041067399&amp;di=a43e7666a602dad36a23d46a4c9ffafa&amp;imgtype=0&amp;src=http%3A%2F%2Fimgditan2011.cang.com%2F200905%2F29%2F20090529182716250.jpg"/>
-    <hyperlink ref="F91" r:id="rId45" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041693772&amp;di=19e8afbb7ca5d67cb900101f23b4a04f&amp;imgtype=0&amp;src=http%3A%2F%2Fs9.sinaimg.cn%2Fbmiddle%2F41448e9b4439697f23f18"/>
-    <hyperlink ref="F88" r:id="rId46" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042005480&amp;di=6fe8dd92cd41d87de79565bf10d8a66d&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2F1wU5gicP6sk0z6ZfibG7gdjotZm1lVzh3TGuGIblhe1rt5CvI2pAA2JGY5KRWnrUxIYWNC3AJVQQMEXRiaAibSglbQ%2F640%3Fwx_fmt%3Djpeg"/>
-    <hyperlink ref="F87" r:id="rId47" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042137751&amp;di=d0f7423d899add180c4243005d42d644&amp;imgtype=jpg&amp;src=http%3A%2F%2Fmpic.tiankong.com%2F7c5%2Fad1%2F7c5ad1e52639f25fc60e6b7908a03a07%2F640.jpg%40!670w"/>
-    <hyperlink ref="F86" r:id="rId48" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042198676&amp;di=82e3aa9841d26fbe449266501207867b&amp;imgtype=0&amp;src=http%3A%2F%2Fpic2.16pic.com%2F00%2F21%2F57%2F16pic_2157388_b.jpg"/>
-    <hyperlink ref="F85" r:id="rId49" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563636962&amp;di=3a3408d2a1c38bfa7af7ad31c726c5d9&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fq_70%2Cc_zoom%2Cw_640%2Fimages%2F20171230%2F3cc5ef19518f4200a1815419ce32c302.jpeg"/>
-    <hyperlink ref="F84" r:id="rId50" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042495054&amp;di=187026684a43ac17c9e0d90028809f80&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F16%2F08%2F28%2F1257c264eb9fe41.jpg"/>
-    <hyperlink ref="G110" r:id="rId51" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037235537&amp;di=1a2e41407736b32ca5c4485c096a30af&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft1348%2F23%2F245465528%2F131060%2F5b861dc9%2F556973b6N20d3889e.jpg%2521q70.jpg"/>
-    <hyperlink ref="G109" r:id="rId52" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037479046&amp;di=0969436f9a8daea7915fb7630e0c6ec8&amp;imgtype=0&amp;src=http%3A%2F%2Fshop.r10s.jp%2Fselect-tool%2Fcabinet%2Ffujiwara%2F11%2F4977292890090.jpg"/>
-    <hyperlink ref="G108" r:id="rId53" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037962261&amp;di=ee58f6f2eb1027dd9d43e5599511b6fd&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20170924%2F2d787bf603ad4d16827219e1d558a1d8.jpeg"/>
-    <hyperlink ref="G107" r:id="rId54" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038196455&amp;di=a351c068cdbc4fa3801ef9d73e2ccc95&amp;imgtype=0&amp;src=http%3A%2F%2Fimages.onccc.com%2Fi003%2F2014%2F07%2F21%2F85%2Fbig_700d6d8513095db0a65ad48ef3062c71.JPG"/>
-    <hyperlink ref="G106" r:id="rId55" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038536443&amp;di=5dec03fd2c55198f12ebc2c529abc072&amp;imgtype=0&amp;src=http%3A%2F%2Fn.sinaimg.cn%2Fsinacn15%2F50%2Fw1080h570%2F20180726%2F8d7e-hfvkitx0982483.jpg"/>
-    <hyperlink ref="G105" r:id="rId56" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038736062&amp;di=cc2887a29cb2c45a830b5c0bcbbbabd7&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.t-jiaju.com%2FtujjJDEwLmFsaWNkbi5jb20vaTMvNDE0MjI4MDA0L1RCMjVHV1BYSWdkNjFCalNaRmpYWGJYc3BYYV8hITQxNDIyODAwNCQ5.jpg"/>
-    <hyperlink ref="G104" r:id="rId57" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039040226&amp;di=463aba1e8ad9f92caef3a9af8c4868a9&amp;imgtype=0&amp;src=http%3A%2F%2Fpica.nipic.com%2F2008-06-11%2F2008611115712882_2.jpg"/>
-    <hyperlink ref="G103" r:id="rId58" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039302224&amp;di=2f50f01fc82ea815f64d408fbc6f2288&amp;imgtype=0&amp;src=http%3A%2F%2Fimg3.redocn.com%2F20110302%2F20110301_b1f1adbef7bfc3cd18a7elrGNi261wi7.jpg"/>
-    <hyperlink ref="G100" r:id="rId59" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040039484&amp;di=a47d31e729c0694abdb7359bbe6db806&amp;imgtype=0&amp;src=http%3A%2F%2F58pic.ooopic.com%2F58pic%2F18%2F85%2F13%2F565608182ad5c.jpg"/>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E108" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E107" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E106" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E105" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E104" r:id="rId7" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038891671&amp;di=feecce43e34bd9a01df53c1f5c359a00&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F16%2F08%2F23%2F2057bc41625fdd9.jpg%2521%2Ffwfh%2F804x804%2Fquality%2F90%2Funsharp%2Ftrue%2Fcompress%2Ftrue" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E103" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E102" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E101" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E100" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E99" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E98" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E97" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E96" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E95" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E94" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E93" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E92" r:id="rId19" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041490988&amp;di=3583d01f97629799e10ec7c7d8ce289f&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.t-biao.com%2FtubiaoaHR0cHM6Ly9pbWcuYWxpY2RuLmNvbS90ZnNjb20vaTEvMjg1MTU2NzkyNC9UQjJzYkYxa2RGb3B1RmpTWkZIWFhiU2xYWGFfISEyODUxNTY3OTI0JDk.jpg" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E91" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E90" r:id="rId21" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041794404&amp;di=0a0c11c5830dcb514ca8674653682395&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FuiaJZ8mDjtLsfHGyJuficS7JxuvQuickicibk3Gf5uaiaBjHvVYjKaF2tqXMsKQMX9icWUjmLozibL3Tw79EojkudIqqow%2F640%3Fwx_fmt%3Djpeg" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E89" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E88" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E87" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E86" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E85" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E84" r:id="rId27" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042321443&amp;di=e3f004cd44f0e9b72fd2311671b43b8a&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F18%2F01%2F25%2Fa1c4b8bdc908582dfc02ec06b42452c6.jpg%2521%2Ffwfh%2F804x819%2Fquality%2F90%2Funsharp%2Ftrue%2Fcompress%2Ftrue" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E83" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E82" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F111" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F110" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F109" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F108" r:id="rId33" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037938085&amp;di=52ae8e954e013b3f98e72d1376fc8cdd&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fq_70%2Cc_zoom%2Cw_640%2Fimages%2F20171210%2Fbbede55cf86f4b01b7888442f0081f94.jpeg" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F107" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F106" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F105" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F104" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F103" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F102" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F100" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F98" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F97" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F96" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F95" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F91" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F88" r:id="rId46" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042005480&amp;di=6fe8dd92cd41d87de79565bf10d8a66d&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2F1wU5gicP6sk0z6ZfibG7gdjotZm1lVzh3TGuGIblhe1rt5CvI2pAA2JGY5KRWnrUxIYWNC3AJVQQMEXRiaAibSglbQ%2F640%3Fwx_fmt%3Djpeg" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F87" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F86" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F85" r:id="rId49" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563636962&amp;di=3a3408d2a1c38bfa7af7ad31c726c5d9&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fq_70%2Cc_zoom%2Cw_640%2Fimages%2F20171230%2F3cc5ef19518f4200a1815419ce32c302.jpeg" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F84" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G110" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G109" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G108" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G107" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G106" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G105" r:id="rId56" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038736062&amp;di=cc2887a29cb2c45a830b5c0bcbbbabd7&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.t-jiaju.com%2FtujjJDEwLmFsaWNkbi5jb20vaTMvNDE0MjI4MDA0L1RCMjVHV1BYSWdkNjFCalNaRmpYWGJYc3BYYV8hITQxNDIyODAwNCQ5.jpg" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G104" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G103" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G100" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E81" r:id="rId60" xr:uid="{835FEF21-C93B-4617-8416-FE291CCC15A5}"/>
+    <hyperlink ref="F81" r:id="rId61" xr:uid="{B79116D0-CA2B-474F-86D6-587F059FF73A}"/>
+    <hyperlink ref="G81" r:id="rId62" xr:uid="{4EC4C1F1-9A9A-4B60-8A15-3B54D5DBC60D}"/>
+    <hyperlink ref="E80" r:id="rId63" xr:uid="{4E127234-8BC6-45ED-B09F-71FE8DC34885}"/>
+    <hyperlink ref="F80" r:id="rId64" xr:uid="{A1D609B8-E92F-495F-A124-988F618AB5EA}"/>
+    <hyperlink ref="E79" r:id="rId65" xr:uid="{BA3CEC12-ED12-41A8-A3A1-FFA42A3210D4}"/>
+    <hyperlink ref="E78" r:id="rId66" xr:uid="{C87A4D89-8829-4A40-AAAC-6FEB4B3EDDA8}"/>
+    <hyperlink ref="E77" r:id="rId67" xr:uid="{0FB8D819-AC51-41CA-98AD-B41C32C12216}"/>
+    <hyperlink ref="E76" r:id="rId68" xr:uid="{8FE72570-3DF8-48F3-A435-6C884F3B5EA6}"/>
+    <hyperlink ref="E75" r:id="rId69" xr:uid="{D0A41218-E45A-4124-8794-8D5715C5BEF4}"/>
+    <hyperlink ref="E74" r:id="rId70" xr:uid="{8BA48365-C088-4C9F-BF85-1002D7A4E977}"/>
+    <hyperlink ref="F74" r:id="rId71" xr:uid="{8CBCE425-70F6-447F-B45D-435A7F75661E}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{6F4DE44C-680B-4956-A84E-F5ED3BDE7922}"/>
+    <hyperlink ref="F73" r:id="rId73" xr:uid="{0B210310-1468-4802-B549-394AC6F8434B}"/>
+    <hyperlink ref="E72" r:id="rId74" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106884688&amp;di=e2ae584e2805a5210437f67625a4d5fa&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FU7XDdXj97GugEOutAjLTRsia6jhPmME35goauTpkSEDlJ9iatZ7kqp7dOZDDQWUVlwHMwgfU5HuOO8yjWWrQCNSw%2F640%3Fwx_fmt%3Djpeg" xr:uid="{43E6F965-7380-483F-B47E-DEC78FE3D6B3}"/>
+    <hyperlink ref="F72" r:id="rId75" xr:uid="{3DF4B1D3-9B8C-49CF-B2ED-63D9148E2A30}"/>
+    <hyperlink ref="E71" r:id="rId76" xr:uid="{02443EF6-9FF7-4E2E-92E5-710A83C0FA80}"/>
+    <hyperlink ref="F71" r:id="rId77" xr:uid="{58A6CE67-182E-4811-8BA8-2A301BFAC445}"/>
+    <hyperlink ref="E70" r:id="rId78" xr:uid="{23116044-8552-4BE6-8D62-DE4FCA3942D6}"/>
+    <hyperlink ref="F70" r:id="rId79" xr:uid="{AEBEF819-800C-49D9-B3A0-F50FD2FB4959}"/>
+    <hyperlink ref="E69" r:id="rId80" xr:uid="{7D1C4EE7-8562-4093-843F-D14D4BE56F11}"/>
+    <hyperlink ref="E68" r:id="rId81" xr:uid="{10A8674B-670E-4DDF-8027-722112B0CABF}"/>
+    <hyperlink ref="F68" r:id="rId82" xr:uid="{D3A72213-F78F-41EF-838F-75E6312AADFF}"/>
+    <hyperlink ref="E67" r:id="rId83" xr:uid="{394CF643-5103-474C-B810-ABCADAF42987}"/>
+    <hyperlink ref="E66" r:id="rId84" xr:uid="{724D7565-8777-4849-8F6D-F6E9175C0BF3}"/>
+    <hyperlink ref="F66" r:id="rId85" xr:uid="{329EEAA7-C75E-4C4C-9873-181072F1EB1C}"/>
+    <hyperlink ref="E65" r:id="rId86" xr:uid="{780B5AA0-D06B-44AC-B6E8-8535027503E3}"/>
+    <hyperlink ref="E64" r:id="rId87" xr:uid="{079A835F-46D9-4200-99F6-EE6CFDD60F74}"/>
+    <hyperlink ref="F64" r:id="rId88" xr:uid="{FF6CD418-E2F7-40CF-BD1B-A88F48533556}"/>
+    <hyperlink ref="E63" r:id="rId89" xr:uid="{0AB55A04-E16C-4421-8F07-C7C5284D2029}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
--- a/English/Super Memory/memory.xlsx
+++ b/English/Super Memory/memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3283FC-4CC9-422C-B4A3-A28F530104B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF8306-088A-44F4-B12D-2393EBF435D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>no</t>
   </si>
@@ -855,6 +855,72 @@
   </si>
   <si>
     <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107695311&amp;di=20ab060afd8f651a4388bc420d84e6a2&amp;imgtype=0&amp;src=http%3A%2F%2Fpic2.16pic.com%2F00%2F11%2F97%2F16pic_1197205_b.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107873613&amp;di=a547fe4719a48caa11545d442e8afbd2&amp;imgtype=0&amp;src=http%3A%2F%2Ffile03.sg560.com%2Fupimg01%2F2016%2F03%2F602717%2FTitle%2F1852457152621241602717.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563702670&amp;di=5e54f6e7032bfde5afdcd415ac4b19e6&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fwww.epdsw.cn%2Fuploadfile%2Farticle%2F2014917223430182393.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107995829&amp;di=27952a059960b67db915bf02aad74639&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.90sjimg.com%2Fdesign%2F01%2F45%2F68%2F00%2F594795c06bbbe.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108081633&amp;di=3f989015863f0fc39c60b14edcc9d15b&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F03%2F94%2F39%2F9357da8d4483b91.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108191993&amp;di=1098456fed7fd770cb2f27c12deeb06e&amp;imgtype=0&amp;src=http%3A%2F%2Fcms-bucket.nosdn.127.net%2Fa37aade4ee434aef8f993fd5d935479620180130113511.gif</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108252943&amp;di=3748288c1428e02886680465f07ef0dc&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.zcool.cn%2Fcommunity%2F01788a55c6e4256ac72558086b6bba.gif</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108315615&amp;di=5685107ceb4c0278856e53e40c9bc15e&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20170917%2Fffd4639e99cb42e0afc010e96b7e1d8f.gif</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108532158&amp;di=ed3ac4c63dd43b8074a0553afd9ec3a5&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F17%2F07%2F15%2F81e8a951da00cda7511ddea081310133.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108609748&amp;di=1632fb568088ab3a1c0a51df3ab841fb&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.redocn.com%2Fsheying%2F20150309%2Flinhaixueyuanxiaohuoche_3984146.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108736887&amp;di=f08bd2b4d7e723f1a7e677e82266fe32&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20180703%2F614751b867a14136a1d49207b266667b.gif</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108859181&amp;di=261246f4b6ef0b6b5970112a4fa11bda&amp;imgtype=0&amp;src=http%3A%2F%2Fs16.sinaimg.cn%2Fbmiddle%2F002aZGGXzy71cX9xc7l9f%26690</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108941567&amp;di=85910fee2957e93929465ec334f57baf&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F40%2F88%2F592741db899cb_610.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109047550&amp;di=c2f004c250183d769f31779b95830cbb&amp;imgtype=0&amp;src=http%3A%2F%2Fimg14.360buyimg.com%2FpopWaterMark%2Fjfs%2Ft640%2F152%2F309508195%2F397968%2Fd21d77af%2F545c8e50Nf1cf5007.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109094517&amp;di=9c8f16ea20a9bcadc31f106f1430d06c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.windmsn.com%2Fb%2F2%2F287%2F28788%2F2878813.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109160766&amp;di=f73736c769a72ee245b84e20d9fbcc2b&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F17%2F12%2F25%2F61633d307b83d4ca3184e4140cf10e85.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109244470&amp;di=3f78400c7c90918671ff4fff271c0217&amp;imgtype=0&amp;src=http%3A%2F%2Fww1.sinaimg.cn%2Flarge%2F87eee656jw1ezkfsaskwoj21kw11sh08.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=3118097342,891277758&amp;fm=26&amp;gp=0.jpg</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +929,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="00"/>
+    <numFmt numFmtId="176" formatCode="00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -957,7 +1023,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1241,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="13.5"/>
@@ -2427,6 +2493,9 @@
       <c r="D51" s="4">
         <v>43659</v>
       </c>
+      <c r="E51" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="H51">
         <v>0</v>
       </c>
@@ -2447,6 +2516,9 @@
       <c r="D52" s="4">
         <v>43659</v>
       </c>
+      <c r="E52" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="H52">
         <v>0</v>
       </c>
@@ -2467,6 +2539,9 @@
       <c r="D53" s="4">
         <v>43659</v>
       </c>
+      <c r="E53" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="H53">
         <v>0</v>
       </c>
@@ -2487,6 +2562,12 @@
       <c r="D54" s="4">
         <v>43659</v>
       </c>
+      <c r="E54" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="H54">
         <v>0</v>
       </c>
@@ -2507,6 +2588,12 @@
       <c r="D55" s="4">
         <v>43659</v>
       </c>
+      <c r="E55" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="H55">
         <v>0</v>
       </c>
@@ -2527,6 +2614,9 @@
       <c r="D56" s="4">
         <v>43659</v>
       </c>
+      <c r="E56" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="H56">
         <v>0</v>
       </c>
@@ -2547,6 +2637,12 @@
       <c r="D57" s="4">
         <v>43659</v>
       </c>
+      <c r="E57" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="H57">
         <v>0</v>
       </c>
@@ -2567,6 +2663,9 @@
       <c r="D58" s="4">
         <v>43659</v>
       </c>
+      <c r="E58" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="H58">
         <v>0</v>
       </c>
@@ -2587,6 +2686,9 @@
       <c r="D59" s="4">
         <v>43659</v>
       </c>
+      <c r="E59" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="H59">
         <v>0</v>
       </c>
@@ -2607,6 +2709,9 @@
       <c r="D60" s="4">
         <v>43659</v>
       </c>
+      <c r="E60" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="H60">
         <v>0</v>
       </c>
@@ -2627,6 +2732,12 @@
       <c r="D61" s="4">
         <v>43659</v>
       </c>
+      <c r="E61" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="H61">
         <v>0</v>
       </c>
@@ -2646,6 +2757,12 @@
       </c>
       <c r="D62" s="4">
         <v>43659</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4002,8 +4119,25 @@
     <hyperlink ref="E64" r:id="rId87" xr:uid="{079A835F-46D9-4200-99F6-EE6CFDD60F74}"/>
     <hyperlink ref="F64" r:id="rId88" xr:uid="{FF6CD418-E2F7-40CF-BD1B-A88F48533556}"/>
     <hyperlink ref="E63" r:id="rId89" xr:uid="{0AB55A04-E16C-4421-8F07-C7C5284D2029}"/>
+    <hyperlink ref="E62" r:id="rId90" xr:uid="{7DC16B2E-9F84-4745-ACED-29898558E700}"/>
+    <hyperlink ref="F62" r:id="rId91" xr:uid="{01101C54-67D4-4626-A01C-441ADF3745A9}"/>
+    <hyperlink ref="E61" r:id="rId92" xr:uid="{4F80B5AA-3C2D-4A4C-A197-5914462E7B25}"/>
+    <hyperlink ref="F61" r:id="rId93" xr:uid="{D43EB885-544A-4630-9CAB-86F78E02943A}"/>
+    <hyperlink ref="E60" r:id="rId94" xr:uid="{C6308F68-8B2E-4EFD-9E83-91EA815E2AE7}"/>
+    <hyperlink ref="E59" r:id="rId95" xr:uid="{980BBA37-D626-416F-A772-A5438A0AF801}"/>
+    <hyperlink ref="E58" r:id="rId96" xr:uid="{DE8D4A06-5DA0-4677-A590-B31210AEE7A2}"/>
+    <hyperlink ref="E57" r:id="rId97" xr:uid="{3F0AA67A-2346-4E33-9606-47C2A00317E3}"/>
+    <hyperlink ref="F57" r:id="rId98" xr:uid="{34A67A77-9049-447E-9AA3-11121AD620EF}"/>
+    <hyperlink ref="E56" r:id="rId99" xr:uid="{28B13D4E-E90A-4DB2-84C3-A7D378194F61}"/>
+    <hyperlink ref="E55" r:id="rId100" xr:uid="{05C410EE-A52E-463E-82DD-7118FD531F97}"/>
+    <hyperlink ref="F55" r:id="rId101" xr:uid="{AB8E254A-B060-437E-8258-7DE052214DC8}"/>
+    <hyperlink ref="E54" r:id="rId102" xr:uid="{70DF4AC9-8375-4410-88D7-69C2F9C3595F}"/>
+    <hyperlink ref="F54" r:id="rId103" xr:uid="{0A2985F0-6C63-4D6C-8557-E5C98235FE0B}"/>
+    <hyperlink ref="E53" r:id="rId104" xr:uid="{0A633EC9-BEAD-4101-B369-D79337F6BCB2}"/>
+    <hyperlink ref="E52" r:id="rId105" xr:uid="{BB3BD289-BD0B-4B9D-B277-4C9EF54B5FBC}"/>
+    <hyperlink ref="E51" r:id="rId106" xr:uid="{C26945D6-C6F6-486F-834E-FFE9B127C56E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
--- a/English/Super Memory/memory.xlsx
+++ b/English/Super Memory/memory.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF8306-088A-44F4-B12D-2393EBF435D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26730" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>no</t>
   </si>
@@ -328,120 +322,291 @@
     <t>蜥蜴</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107653561&amp;di=97a1440d8cefacaba3bee62116280d66&amp;imgtype=0&amp;src=http%3A%2F%2Fs9.rr.itc.cn%2Fr%2FwapChange%2F20172_17_22%2Fa0dmuv5435055338661.jpg</t>
+  </si>
+  <si>
     <t>柿子</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108328136&amp;di=7e08f0fbb143885df76eb23f8dc9a0a8&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20181024%2F8182045d7da5498f9778645db6471dd6.jpeg</t>
+  </si>
+  <si>
+    <t>https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=2510358560,1960154417&amp;fm=26&amp;gp=0.jpg</t>
+  </si>
+  <si>
     <t>石山</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108574018&amp;di=9985b095c78e684c6c879e539a1c2461&amp;imgtype=0&amp;src=http%3A%2F%2Fpic1.win4000.com%2Fwallpaper%2F2018-09-30%2F5bb08a4ee422f.jpg</t>
+  </si>
+  <si>
     <t>丝丝蛇</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108775839&amp;di=57962339d38ee829d50bd66eba036f9a&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.juimg.com%2Ftuku%2Fyulantu%2F121225%2F234741-1212251FJ853.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108955873&amp;di=e6b3f16e8a83f603621229d72115566b&amp;imgtype=0&amp;src=http%3A%2F%2Ff.hiphotos.baidu.com%2Fzhidao%2Fpic%2Fitem%2F1f178a82b9014a90dbd2bffea2773912b21bee81.jpg</t>
+  </si>
+  <si>
     <t>师傅</t>
   </si>
   <si>
-    <t>私聊</t>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109103330&amp;di=f21636a6dbb0cedd0551ebf9bae08e08&amp;imgtype=0&amp;src=http%3A%2F%2Fs8.sinaimg.cn%2Fmw690%2F003lSHLQzy7bVY1cBMj37%26690</t>
+  </si>
+  <si>
+    <t>饲料</t>
+  </si>
+  <si>
+    <t>https://ss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=593967643,1061177158&amp;fm=26&amp;gp=0.jpg</t>
   </si>
   <si>
     <t>司机</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109322019&amp;di=b0f1c980f687cba691eea2e8f60108f1&amp;imgtype=0&amp;src=http%3A%2F%2Fi1.hdslb.com%2Fbfs%2Farchive%2F4dcb3827e3f8728cdcbc9ada581c276c2fbf4106.jpg</t>
+  </si>
+  <si>
     <t>石板</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109418323&amp;di=a4a786c33cf6cf838f711e8ad58d59b7&amp;imgtype=jpg&amp;src=http%3A%2F%2Fimg0.imgtn.bdimg.com%2Fit%2Fu%3D514489780%2C1645458559%26fm%3D214%26gp%3D0.jpg</t>
+  </si>
+  <si>
     <t>毛泽东</t>
   </si>
   <si>
+    <t>https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=3118097342,891277758&amp;fm=26&amp;gp=0.jpg</t>
+  </si>
+  <si>
     <t>武林</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109244470&amp;di=3f78400c7c90918671ff4fff271c0217&amp;imgtype=0&amp;src=http%3A%2F%2Fww1.sinaimg.cn%2Flarge%2F87eee656jw1ezkfsaskwoj21kw11sh08.jpg</t>
+  </si>
+  <si>
     <t>工人</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109160766&amp;di=f73736c769a72ee245b84e20d9fbcc2b&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F17%2F12%2F25%2F61633d307b83d4ca3184e4140cf10e85.jpg</t>
+  </si>
+  <si>
     <t>鼓儿</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109047550&amp;di=c2f004c250183d769f31779b95830cbb&amp;imgtype=0&amp;src=http%3A%2F%2Fimg14.360buyimg.com%2FpopWaterMark%2Fjfs%2Ft640%2F152%2F309508195%2F397968%2Fd21d77af%2F545c8e50Nf1cf5007.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109094517&amp;di=9c8f16ea20a9bcadc31f106f1430d06c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.windmsn.com%2Fb%2F2%2F287%2F28788%2F2878813.jpg</t>
+  </si>
+  <si>
     <t>乌纱帽</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108859181&amp;di=261246f4b6ef0b6b5970112a4fa11bda&amp;imgtype=0&amp;src=http%3A%2F%2Fs16.sinaimg.cn%2Fbmiddle%2F002aZGGXzy71cX9xc7l9f%26690</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108941567&amp;di=85910fee2957e93929465ec334f57baf&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F40%2F88%2F592741db899cb_610.jpg</t>
+  </si>
+  <si>
     <t>青年</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108736887&amp;di=f08bd2b4d7e723f1a7e677e82266fe32&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20180703%2F614751b867a14136a1d49207b266667b.gif</t>
+  </si>
+  <si>
     <t>火车</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108532158&amp;di=ed3ac4c63dd43b8074a0553afd9ec3a5&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F17%2F07%2F15%2F81e8a951da00cda7511ddea081310133.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108609748&amp;di=1632fb568088ab3a1c0a51df3ab841fb&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.redocn.com%2Fsheying%2F20150309%2Flinhaixueyuanxiaohuoche_3984146.jpg</t>
+  </si>
+  <si>
     <t>蜗牛</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108315615&amp;di=5685107ceb4c0278856e53e40c9bc15e&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20170917%2Fffd4639e99cb42e0afc010e96b7e1d8f.gif</t>
+  </si>
+  <si>
     <t>武器</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108252943&amp;di=3748288c1428e02886680465f07ef0dc&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.zcool.cn%2Fcommunity%2F01788a55c6e4256ac72558086b6bba.gif</t>
+  </si>
+  <si>
     <t>尾巴</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108191993&amp;di=1098456fed7fd770cb2f27c12deeb06e&amp;imgtype=0&amp;src=http%3A%2F%2Fcms-bucket.nosdn.127.net%2Fa37aade4ee434aef8f993fd5d935479620180130113511.gif</t>
+  </si>
+  <si>
     <t>五角星</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107995829&amp;di=27952a059960b67db915bf02aad74639&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.90sjimg.com%2Fdesign%2F01%2F45%2F68%2F00%2F594795c06bbbe.png</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108081633&amp;di=3f989015863f0fc39c60b14edcc9d15b&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F03%2F94%2F39%2F9357da8d4483b91.jpg</t>
+  </si>
+  <si>
     <t>榴莲</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107873613&amp;di=a547fe4719a48caa11545d442e8afbd2&amp;imgtype=0&amp;src=http%3A%2F%2Ffile03.sg560.com%2Fupimg01%2F2016%2F03%2F602717%2FTitle%2F1852457152621241602717.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563702670&amp;di=5e54f6e7032bfde5afdcd415ac4b19e6&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fwww.epdsw.cn%2Fuploadfile%2Farticle%2F2014917223430182393.png</t>
+  </si>
+  <si>
     <t>儿童</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107695311&amp;di=20ab060afd8f651a4388bc420d84e6a2&amp;imgtype=0&amp;src=http%3A%2F%2Fpic2.16pic.com%2F00%2F11%2F97%2F16pic_1197205_b.jpg</t>
+  </si>
+  <si>
     <t>柳儿</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107580001&amp;di=3a31b98ce663d51d01b74ad0e8b1de27&amp;imgtype=jpg&amp;src=http%3A%2F%2Fimg3.imgtn.bdimg.com%2Fit%2Fu%3D3131950238%2C3676379902%26fm%3D214%26gp%3D0.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107641627&amp;di=d89960e529a964da7f3c179c5c33b831&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.99114.com%2Fgroup1%2FM00%2F09%2F34%2FwKgGTFWWcneAHDCuAAI_vaXgugM426.jpg</t>
+  </si>
+  <si>
     <t>流沙沙漏</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563702206&amp;di=88a3f9d05e805d67a057687c4fa37052&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fwww.centralsolomon.com%2Fimages%2FTB16HrqFFXXXXajapXXXXXXXXXX_%21%210-item_pic.jpg_500x500.jpg</t>
+  </si>
+  <si>
     <t>螺丝</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107375122&amp;di=d21f09dcc284b2a85a5d30e2aa1a906e&amp;imgtype=jpg&amp;src=http%3A%2F%2Fimg0.imgtn.bdimg.com%2Fit%2Fu%3D1041083175%2C2440403865%26fm%3D214%26gp%3D0.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107412048&amp;di=0a7634fd27179c849dc2b5fe8d605dbc&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F60%2F28%2F594d7147cb2cc_610.jpg</t>
+  </si>
+  <si>
     <t>绿壶</t>
   </si>
   <si>
+    <t>https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=799296892,927384394&amp;fm=26&amp;gp=0.jpg</t>
+  </si>
+  <si>
     <t>溜溜球</t>
   </si>
   <si>
+    <t>https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=681294974,3020569936&amp;fm=26&amp;gp=0.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107248961&amp;di=2e01d168d1f24eeed6a5a591f7620a36&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft1267%2F65%2F140049916%2F283105%2F3e2f25be%2F55030a7eN06945216.jpg%2521q70.jpg</t>
+  </si>
+  <si>
     <t>绿漆</t>
   </si>
   <si>
+    <t>https://ss1.bdstatic.com/70cFvXSh_Q1YnxGkpoWK1HF6hhy/it/u=1947783256,3643699783&amp;fm=26&amp;gp=0.jpg</t>
+  </si>
+  <si>
     <t>喇叭</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107037950&amp;di=342aca65ce3135b6132af7fcc008ea5c&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F17%2F11%2F14%2F95890e982f5da0a5e37777195a5c8018.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107083419&amp;di=be8c7c9c9432c7bed5a9b6d78e41fa0d&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F16%2F08%2F11%2F1757ac4225aa35b.jpg</t>
+  </si>
+  <si>
     <t>太极</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106975799&amp;di=8d94162f17d58a84d89aeecf379a4f1c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.gtimg.com%2Frushidao%2Fpics%2Fhv1%2F81%2F21%2F1466%2F95332086.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107007195&amp;di=907862e921eac9c201da3d6c47ab4f57&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.ooopic.com%2F17%2F01%2F99%2F17019900-93b38a908214274d132052cc639edbdd.jpg</t>
+  </si>
+  <si>
     <t>麒麟</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106884688&amp;di=e2ae584e2805a5210437f67625a4d5fa&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FU7XDdXj97GugEOutAjLTRsia6jhPmME35goauTpkSEDlJ9iatZ7kqp7dOZDDQWUVlwHMwgfU5HuOO8yjWWrQCNSw%2F640%3Fwx_fmt%3Djpeg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106927988&amp;di=23a660d1e8a8c31b6552c5c66272933c&amp;imgtype=0&amp;src=http%3A%2F%2Fimage.game.uc.cn%2F2013%2F8%2F9%2F9289511.jpg</t>
+  </si>
+  <si>
     <t>鸡翅</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106743512&amp;di=519c8687e8a8d0e9123f1699c31952ae&amp;imgtype=0&amp;src=http%3A%2F%2Fs11.sinaimg.cn%2Fmw690%2F002xnc8Szy77NrBHbZ04a%26690</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106840408&amp;di=d485dbdaa86fde56f08eea73cb040c33&amp;imgtype=0&amp;src=http%3A%2F%2Fp0.meituan.net%2Fdeal%2F__32762284__9238474.jpg</t>
+  </si>
+  <si>
     <t>企鹅</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106642605&amp;di=5ea7cae9f75bec23addf5fab5257b1ad&amp;imgtype=0&amp;src=http%3A%2F%2Fi05.cztv.com%2Fcztv%2Fvms%2F2018%2F01%2F17%2F0e51e421ab784064bc58f1f8d9367117%2F8_640_400.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106703136&amp;di=6a1e43e9a0e8636db2c4b6a017cf7f7a&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201512%2F26%2F20151226193012_wez28.thumb.700_0.jpeg</t>
+  </si>
+  <si>
     <t>汽水</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106535973&amp;di=f633527eeae4088b28ccf22195338ee9&amp;imgtype=0&amp;src=http%3A%2F%2Fimg2.myhsw.cn%2F2015-06-28%2Fz0b95c7p.jpg</t>
+  </si>
+  <si>
     <t>骑士</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106412185&amp;di=ff466f1c93837f858b1643dbeb40b326&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.artsbj.com%2FUploadFiles%2F2015-04%2Fwyw%2F201504231543129153.png</t>
+  </si>
+  <si>
     <t>西装</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106334345&amp;di=b37f9405eabbc7637021f900961f59ed&amp;imgtype=0&amp;src=http%3A%2F%2Fimg002.hc360.cn%2Fk3%2FM01%2FB6%2FC3%2FwKhQx1jPt8yECeUZAAAAALlh7RE115.jpg</t>
+  </si>
+  <si>
     <t>汽油</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106233050&amp;di=98027ae1f8b36cff810e0b2d8cf8650a&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.chinaadec.com%2FUploadFile%2Fimage%2F20150330%2F20150330163632_803.jpg</t>
+  </si>
+  <si>
     <t>机器</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105965955&amp;di=e0c84accee2fa3a92c5bd8067ef57670&amp;imgtype=0&amp;src=http%3A%2F%2Fn.sinaimg.cn%2Fsinacn10%2F400%2Fw600h600%2F20180914%2F7854-hiixpun8848807.gif</t>
+  </si>
+  <si>
     <t>青蛙</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105490878&amp;di=7630ba5af958ecef26cb2559bcdedc27&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201801%2F31%2F20180131225903_4skzR.jpeg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105482285&amp;di=8855fc0c3abfa4eb6a5c02ea90d68b57&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.zcool.cn%2Fcommunity%2F010086554418a20000019ae92dbe14.jpg</t>
+  </si>
+  <si>
     <t>气球</t>
   </si>
   <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105303707&amp;di=afc28afe82cade8e3f7bc069a8673485&amp;imgtype=0&amp;src=http%3A%2F%2Fdpic.tiankong.com%2Fka%2Fes%2FQJ6440380497.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105406984&amp;di=7947eb3452504b7a6325e10d7949e623&amp;imgtype=0&amp;src=http%3A%2F%2Fpic3.16pic.com%2F00%2F07%2F65%2F16pic_765044_b.jpg</t>
+  </si>
+  <si>
+    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105442663&amp;di=2a9f1599e1fad9b16b9ac8f5f58abfdb&amp;imgtype=0&amp;src=http%3A%2F%2Fpic3.16pic.com%2F00%2F07%2F65%2F16pic_765068_b.jpg</t>
+  </si>
+  <si>
     <t>巴黎铁塔</t>
   </si>
   <si>
@@ -743,195 +908,20 @@
   </si>
   <si>
     <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037125755&amp;di=8d0ece24303acb43f02929b47cc6e9d3&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.ph.126.net%2FAPEoKFxAp8NYA51sgDPtrg%3D%3D%2F3289598052818170342.jpg</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105303707&amp;di=afc28afe82cade8e3f7bc069a8673485&amp;imgtype=0&amp;src=http%3A%2F%2Fdpic.tiankong.com%2Fka%2Fes%2FQJ6440380497.jpg</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105406984&amp;di=7947eb3452504b7a6325e10d7949e623&amp;imgtype=0&amp;src=http%3A%2F%2Fpic3.16pic.com%2F00%2F07%2F65%2F16pic_765044_b.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105442663&amp;di=2a9f1599e1fad9b16b9ac8f5f58abfdb&amp;imgtype=0&amp;src=http%3A%2F%2Fpic3.16pic.com%2F00%2F07%2F65%2F16pic_765068_b.jpg</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105490878&amp;di=7630ba5af958ecef26cb2559bcdedc27&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201801%2F31%2F20180131225903_4skzR.jpeg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105482285&amp;di=8855fc0c3abfa4eb6a5c02ea90d68b57&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.zcool.cn%2Fcommunity%2F010086554418a20000019ae92dbe14.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105965955&amp;di=e0c84accee2fa3a92c5bd8067ef57670&amp;imgtype=0&amp;src=http%3A%2F%2Fn.sinaimg.cn%2Fsinacn10%2F400%2Fw600h600%2F20180914%2F7854-hiixpun8848807.gif</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106233050&amp;di=98027ae1f8b36cff810e0b2d8cf8650a&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.chinaadec.com%2FUploadFile%2Fimage%2F20150330%2F20150330163632_803.jpg</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106334345&amp;di=b37f9405eabbc7637021f900961f59ed&amp;imgtype=0&amp;src=http%3A%2F%2Fimg002.hc360.cn%2Fk3%2FM01%2FB6%2FC3%2FwKhQx1jPt8yECeUZAAAAALlh7RE115.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106412185&amp;di=ff466f1c93837f858b1643dbeb40b326&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.artsbj.com%2FUploadFiles%2F2015-04%2Fwyw%2F201504231543129153.png</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106535973&amp;di=f633527eeae4088b28ccf22195338ee9&amp;imgtype=0&amp;src=http%3A%2F%2Fimg2.myhsw.cn%2F2015-06-28%2Fz0b95c7p.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106642605&amp;di=5ea7cae9f75bec23addf5fab5257b1ad&amp;imgtype=0&amp;src=http%3A%2F%2Fi05.cztv.com%2Fcztv%2Fvms%2F2018%2F01%2F17%2F0e51e421ab784064bc58f1f8d9367117%2F8_640_400.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106703136&amp;di=6a1e43e9a0e8636db2c4b6a017cf7f7a&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201512%2F26%2F20151226193012_wez28.thumb.700_0.jpeg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106743512&amp;di=519c8687e8a8d0e9123f1699c31952ae&amp;imgtype=0&amp;src=http%3A%2F%2Fs11.sinaimg.cn%2Fmw690%2F002xnc8Szy77NrBHbZ04a%26690</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106840408&amp;di=d485dbdaa86fde56f08eea73cb040c33&amp;imgtype=0&amp;src=http%3A%2F%2Fp0.meituan.net%2Fdeal%2F__32762284__9238474.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106884688&amp;di=e2ae584e2805a5210437f67625a4d5fa&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FU7XDdXj97GugEOutAjLTRsia6jhPmME35goauTpkSEDlJ9iatZ7kqp7dOZDDQWUVlwHMwgfU5HuOO8yjWWrQCNSw%2F640%3Fwx_fmt%3Djpeg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106927988&amp;di=23a660d1e8a8c31b6552c5c66272933c&amp;imgtype=0&amp;src=http%3A%2F%2Fimage.game.uc.cn%2F2013%2F8%2F9%2F9289511.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106975799&amp;di=8d94162f17d58a84d89aeecf379a4f1c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.gtimg.com%2Frushidao%2Fpics%2Fhv1%2F81%2F21%2F1466%2F95332086.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107007195&amp;di=907862e921eac9c201da3d6c47ab4f57&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.ooopic.com%2F17%2F01%2F99%2F17019900-93b38a908214274d132052cc639edbdd.jpg</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107037950&amp;di=342aca65ce3135b6132af7fcc008ea5c&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F17%2F11%2F14%2F95890e982f5da0a5e37777195a5c8018.jpg</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107083419&amp;di=be8c7c9c9432c7bed5a9b6d78e41fa0d&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F16%2F08%2F11%2F1757ac4225aa35b.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ss1.bdstatic.com/70cFvXSh_Q1YnxGkpoWK1HF6hhy/it/u=1947783256,3643699783&amp;fm=26&amp;gp=0.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=681294974,3020569936&amp;fm=26&amp;gp=0.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107248961&amp;di=2e01d168d1f24eeed6a5a591f7620a36&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft1267%2F65%2F140049916%2F283105%2F3e2f25be%2F55030a7eN06945216.jpg%2521q70.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=799296892,927384394&amp;fm=26&amp;gp=0.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107375122&amp;di=d21f09dcc284b2a85a5d30e2aa1a906e&amp;imgtype=jpg&amp;src=http%3A%2F%2Fimg0.imgtn.bdimg.com%2Fit%2Fu%3D1041083175%2C2440403865%26fm%3D214%26gp%3D0.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107412048&amp;di=0a7634fd27179c849dc2b5fe8d605dbc&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F60%2F28%2F594d7147cb2cc_610.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563702206&amp;di=88a3f9d05e805d67a057687c4fa37052&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fwww.centralsolomon.com%2Fimages%2FTB16HrqFFXXXXajapXXXXXXXXXX_%21%210-item_pic.jpg_500x500.jpg</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107580001&amp;di=3a31b98ce663d51d01b74ad0e8b1de27&amp;imgtype=jpg&amp;src=http%3A%2F%2Fimg3.imgtn.bdimg.com%2Fit%2Fu%3D3131950238%2C3676379902%26fm%3D214%26gp%3D0.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107641627&amp;di=d89960e529a964da7f3c179c5c33b831&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.99114.com%2Fgroup1%2FM00%2F09%2F34%2FwKgGTFWWcneAHDCuAAI_vaXgugM426.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107695311&amp;di=20ab060afd8f651a4388bc420d84e6a2&amp;imgtype=0&amp;src=http%3A%2F%2Fpic2.16pic.com%2F00%2F11%2F97%2F16pic_1197205_b.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107873613&amp;di=a547fe4719a48caa11545d442e8afbd2&amp;imgtype=0&amp;src=http%3A%2F%2Ffile03.sg560.com%2Fupimg01%2F2016%2F03%2F602717%2FTitle%2F1852457152621241602717.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563702670&amp;di=5e54f6e7032bfde5afdcd415ac4b19e6&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fwww.epdsw.cn%2Fuploadfile%2Farticle%2F2014917223430182393.png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107995829&amp;di=27952a059960b67db915bf02aad74639&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.90sjimg.com%2Fdesign%2F01%2F45%2F68%2F00%2F594795c06bbbe.png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108081633&amp;di=3f989015863f0fc39c60b14edcc9d15b&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F03%2F94%2F39%2F9357da8d4483b91.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108191993&amp;di=1098456fed7fd770cb2f27c12deeb06e&amp;imgtype=0&amp;src=http%3A%2F%2Fcms-bucket.nosdn.127.net%2Fa37aade4ee434aef8f993fd5d935479620180130113511.gif</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108252943&amp;di=3748288c1428e02886680465f07ef0dc&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.zcool.cn%2Fcommunity%2F01788a55c6e4256ac72558086b6bba.gif</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108315615&amp;di=5685107ceb4c0278856e53e40c9bc15e&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20170917%2Fffd4639e99cb42e0afc010e96b7e1d8f.gif</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108532158&amp;di=ed3ac4c63dd43b8074a0553afd9ec3a5&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F17%2F07%2F15%2F81e8a951da00cda7511ddea081310133.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108609748&amp;di=1632fb568088ab3a1c0a51df3ab841fb&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.redocn.com%2Fsheying%2F20150309%2Flinhaixueyuanxiaohuoche_3984146.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108736887&amp;di=f08bd2b4d7e723f1a7e677e82266fe32&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20180703%2F614751b867a14136a1d49207b266667b.gif</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108859181&amp;di=261246f4b6ef0b6b5970112a4fa11bda&amp;imgtype=0&amp;src=http%3A%2F%2Fs16.sinaimg.cn%2Fbmiddle%2F002aZGGXzy71cX9xc7l9f%26690</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108941567&amp;di=85910fee2957e93929465ec334f57baf&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F40%2F88%2F592741db899cb_610.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109047550&amp;di=c2f004c250183d769f31779b95830cbb&amp;imgtype=0&amp;src=http%3A%2F%2Fimg14.360buyimg.com%2FpopWaterMark%2Fjfs%2Ft640%2F152%2F309508195%2F397968%2Fd21d77af%2F545c8e50Nf1cf5007.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109094517&amp;di=9c8f16ea20a9bcadc31f106f1430d06c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.windmsn.com%2Fb%2F2%2F287%2F28788%2F2878813.jpg</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109160766&amp;di=f73736c769a72ee245b84e20d9fbcc2b&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F17%2F12%2F25%2F61633d307b83d4ca3184e4140cf10e85.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109244470&amp;di=3f78400c7c90918671ff4fff271c0217&amp;imgtype=0&amp;src=http%3A%2F%2Fww1.sinaimg.cn%2Flarge%2F87eee656jw1ezkfsaskwoj21kw11sh08.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=3118097342,891277758&amp;fm=26&amp;gp=0.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,43 +938,348 @@
     <font>
       <sz val="8.5"/>
       <name val="Fira Code"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -992,12 +1287,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,10 +1551,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1030,18 +1564,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1299,16 +1876,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="13.5"/>
@@ -1318,7 +1895,7 @@
     <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2333,6 +2910,9 @@
       <c r="D43" s="4">
         <v>43659</v>
       </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -2348,10 +2928,16 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D44" s="4">
         <v>43659</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>105</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2368,10 +2954,13 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D45" s="4">
         <v>43659</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2388,10 +2977,16 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D46" s="4">
         <v>43659</v>
+      </c>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2408,10 +3003,13 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D47" s="4">
         <v>43659</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2428,10 +3026,13 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D48" s="4">
         <v>43659</v>
+      </c>
+      <c r="E48" t="s">
+        <v>114</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2448,10 +3049,13 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D49" s="4">
         <v>43659</v>
+      </c>
+      <c r="E49" t="s">
+        <v>116</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2468,10 +3072,13 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D50" s="4">
         <v>43659</v>
+      </c>
+      <c r="E50" t="s">
+        <v>118</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2488,13 +3095,13 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D51" s="4">
         <v>43659</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>287</v>
+        <v>120</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2511,13 +3118,13 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D52" s="4">
         <v>43659</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2534,13 +3141,13 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D53" s="4">
         <v>43659</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2557,16 +3164,16 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D54" s="4">
         <v>43659</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2583,16 +3190,16 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D55" s="4">
         <v>43659</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2609,13 +3216,13 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D56" s="4">
         <v>43659</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2632,16 +3239,16 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D57" s="4">
         <v>43659</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2658,13 +3265,13 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D58" s="4">
         <v>43659</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>277</v>
+        <v>137</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2681,13 +3288,13 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D59" s="4">
         <v>43659</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2704,13 +3311,13 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D60" s="4">
         <v>43659</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2727,16 +3334,16 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D61" s="4">
         <v>43659</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2753,16 +3360,16 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D62" s="4">
         <v>43659</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2779,13 +3386,13 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="D63" s="4">
         <v>43659</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2802,16 +3409,16 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D64" s="4">
         <v>43659</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2828,13 +3435,13 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D65" s="4">
         <v>43659</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2851,16 +3458,16 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="D66" s="4">
         <v>43659</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2877,13 +3484,13 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="D67" s="4">
         <v>43659</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>264</v>
+        <v>159</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2900,16 +3507,16 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D68" s="4">
         <v>43659</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2926,13 +3533,13 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="D69" s="4">
         <v>43659</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2949,16 +3556,16 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D70" s="4">
         <v>43659</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2975,16 +3582,16 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="D71" s="4">
         <v>43659</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3001,16 +3608,16 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="D72" s="4">
         <v>43659</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3027,16 +3634,16 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="D73" s="4">
         <v>43659</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3053,16 +3660,16 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="D74" s="4">
         <v>43659</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3079,13 +3686,13 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="D75" s="4">
         <v>43659</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3102,13 +3709,13 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="D76" s="4">
         <v>43659</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3125,13 +3732,13 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="D77" s="4">
         <v>43659</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3148,13 +3755,13 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="D78" s="4">
         <v>43659</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3171,13 +3778,13 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="D79" s="4">
         <v>43659</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3194,16 +3801,16 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="D80" s="4">
         <v>43659</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3220,19 +3827,19 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D81" s="4">
         <v>43659</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3249,13 +3856,13 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="D82" s="4">
         <v>43659</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3272,13 +3879,13 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="D83" s="4">
         <v>43659</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3295,16 +3902,16 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="D84" s="4">
         <v>43659</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3321,16 +3928,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="D85" s="4">
         <v>43659</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3347,16 +3954,16 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="D86" s="4">
         <v>43659</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3373,16 +3980,16 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="D87" s="4">
         <v>43659</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3399,16 +4006,16 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D88" s="4">
         <v>43659</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3425,13 +4032,13 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="D89" s="4">
         <v>43659</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3448,13 +4055,13 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="D90" s="4">
         <v>43659</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3471,16 +4078,16 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="D91" s="4">
         <v>43659</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3497,13 +4104,13 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="D92" s="4">
         <v>43659</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3520,13 +4127,13 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="D93" s="4">
         <v>43659</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3543,13 +4150,13 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="D94" s="4">
         <v>43659</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3566,16 +4173,16 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="D95" s="4">
         <v>43659</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3592,16 +4199,16 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D96" s="4">
         <v>43659</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3618,16 +4225,16 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="D97" s="4">
         <v>43659</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3644,16 +4251,16 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="D98" s="4">
         <v>43659</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3670,13 +4277,13 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="D99" s="4">
         <v>43659</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3693,19 +4300,19 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="D100" s="4">
         <v>43659</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3722,13 +4329,13 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="D101" s="4">
         <v>43659</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3742,19 +4349,19 @@
         <v>0</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="D102" s="4">
         <v>43659</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3768,22 +4375,22 @@
         <v>1</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="D103" s="4">
         <v>43659</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3797,22 +4404,22 @@
         <v>2</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="D104" s="4">
         <v>43659</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3826,22 +4433,22 @@
         <v>3</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="D105" s="4">
         <v>43659</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3855,22 +4462,22 @@
         <v>4</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="D106" s="4">
         <v>43659</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3884,22 +4491,22 @@
         <v>5</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="D107" s="4">
         <v>43659</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3913,22 +4520,22 @@
         <v>6</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="D108" s="4">
         <v>43659</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3942,22 +4549,22 @@
         <v>7</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C109" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="D109" s="4">
         <v>43659</v>
       </c>
       <c r="E109" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3971,22 +4578,22 @@
         <v>8</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="C110" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="D110" s="4">
         <v>43659</v>
       </c>
       <c r="E110" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4000,22 +4607,22 @@
         <v>9</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="D111" s="4">
         <v>43659</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="G111" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -4024,120 +4631,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:1">
       <c r="A112" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E108" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E107" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E106" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E105" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E104" r:id="rId7" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038891671&amp;di=feecce43e34bd9a01df53c1f5c359a00&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F16%2F08%2F23%2F2057bc41625fdd9.jpg%2521%2Ffwfh%2F804x804%2Fquality%2F90%2Funsharp%2Ftrue%2Fcompress%2Ftrue" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E103" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E102" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E101" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E100" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E99" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E98" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E97" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E96" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E95" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E94" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E93" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E92" r:id="rId19" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041490988&amp;di=3583d01f97629799e10ec7c7d8ce289f&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.t-biao.com%2FtubiaoaHR0cHM6Ly9pbWcuYWxpY2RuLmNvbS90ZnNjb20vaTEvMjg1MTU2NzkyNC9UQjJzYkYxa2RGb3B1RmpTWkZIWFhiU2xYWGFfISEyODUxNTY3OTI0JDk.jpg" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E91" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E90" r:id="rId21" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041794404&amp;di=0a0c11c5830dcb514ca8674653682395&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FuiaJZ8mDjtLsfHGyJuficS7JxuvQuickicibk3Gf5uaiaBjHvVYjKaF2tqXMsKQMX9icWUjmLozibL3Tw79EojkudIqqow%2F640%3Fwx_fmt%3Djpeg" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E89" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E88" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E87" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E86" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E85" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E84" r:id="rId27" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042321443&amp;di=e3f004cd44f0e9b72fd2311671b43b8a&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F18%2F01%2F25%2Fa1c4b8bdc908582dfc02ec06b42452c6.jpg%2521%2Ffwfh%2F804x819%2Fquality%2F90%2Funsharp%2Ftrue%2Fcompress%2Ftrue" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E83" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E82" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F111" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F110" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F109" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F108" r:id="rId33" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037938085&amp;di=52ae8e954e013b3f98e72d1376fc8cdd&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fq_70%2Cc_zoom%2Cw_640%2Fimages%2F20171210%2Fbbede55cf86f4b01b7888442f0081f94.jpeg" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F107" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F106" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F105" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F104" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F103" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F102" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F100" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F98" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F97" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F96" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F95" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F91" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F88" r:id="rId46" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042005480&amp;di=6fe8dd92cd41d87de79565bf10d8a66d&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2F1wU5gicP6sk0z6ZfibG7gdjotZm1lVzh3TGuGIblhe1rt5CvI2pAA2JGY5KRWnrUxIYWNC3AJVQQMEXRiaAibSglbQ%2F640%3Fwx_fmt%3Djpeg" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F87" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F86" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F85" r:id="rId49" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563636962&amp;di=3a3408d2a1c38bfa7af7ad31c726c5d9&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fq_70%2Cc_zoom%2Cw_640%2Fimages%2F20171230%2F3cc5ef19518f4200a1815419ce32c302.jpeg" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F84" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G110" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G109" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G108" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G107" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G106" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G105" r:id="rId56" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038736062&amp;di=cc2887a29cb2c45a830b5c0bcbbbabd7&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.t-jiaju.com%2FtujjJDEwLmFsaWNkbi5jb20vaTMvNDE0MjI4MDA0L1RCMjVHV1BYSWdkNjFCalNaRmpYWGJYc3BYYV8hITQxNDIyODAwNCQ5.jpg" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G104" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G103" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G100" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E81" r:id="rId60" xr:uid="{835FEF21-C93B-4617-8416-FE291CCC15A5}"/>
-    <hyperlink ref="F81" r:id="rId61" xr:uid="{B79116D0-CA2B-474F-86D6-587F059FF73A}"/>
-    <hyperlink ref="G81" r:id="rId62" xr:uid="{4EC4C1F1-9A9A-4B60-8A15-3B54D5DBC60D}"/>
-    <hyperlink ref="E80" r:id="rId63" xr:uid="{4E127234-8BC6-45ED-B09F-71FE8DC34885}"/>
-    <hyperlink ref="F80" r:id="rId64" xr:uid="{A1D609B8-E92F-495F-A124-988F618AB5EA}"/>
-    <hyperlink ref="E79" r:id="rId65" xr:uid="{BA3CEC12-ED12-41A8-A3A1-FFA42A3210D4}"/>
-    <hyperlink ref="E78" r:id="rId66" xr:uid="{C87A4D89-8829-4A40-AAAC-6FEB4B3EDDA8}"/>
-    <hyperlink ref="E77" r:id="rId67" xr:uid="{0FB8D819-AC51-41CA-98AD-B41C32C12216}"/>
-    <hyperlink ref="E76" r:id="rId68" xr:uid="{8FE72570-3DF8-48F3-A435-6C884F3B5EA6}"/>
-    <hyperlink ref="E75" r:id="rId69" xr:uid="{D0A41218-E45A-4124-8794-8D5715C5BEF4}"/>
-    <hyperlink ref="E74" r:id="rId70" xr:uid="{8BA48365-C088-4C9F-BF85-1002D7A4E977}"/>
-    <hyperlink ref="F74" r:id="rId71" xr:uid="{8CBCE425-70F6-447F-B45D-435A7F75661E}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{6F4DE44C-680B-4956-A84E-F5ED3BDE7922}"/>
-    <hyperlink ref="F73" r:id="rId73" xr:uid="{0B210310-1468-4802-B549-394AC6F8434B}"/>
-    <hyperlink ref="E72" r:id="rId74" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106884688&amp;di=e2ae584e2805a5210437f67625a4d5fa&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FU7XDdXj97GugEOutAjLTRsia6jhPmME35goauTpkSEDlJ9iatZ7kqp7dOZDDQWUVlwHMwgfU5HuOO8yjWWrQCNSw%2F640%3Fwx_fmt%3Djpeg" xr:uid="{43E6F965-7380-483F-B47E-DEC78FE3D6B3}"/>
-    <hyperlink ref="F72" r:id="rId75" xr:uid="{3DF4B1D3-9B8C-49CF-B2ED-63D9148E2A30}"/>
-    <hyperlink ref="E71" r:id="rId76" xr:uid="{02443EF6-9FF7-4E2E-92E5-710A83C0FA80}"/>
-    <hyperlink ref="F71" r:id="rId77" xr:uid="{58A6CE67-182E-4811-8BA8-2A301BFAC445}"/>
-    <hyperlink ref="E70" r:id="rId78" xr:uid="{23116044-8552-4BE6-8D62-DE4FCA3942D6}"/>
-    <hyperlink ref="F70" r:id="rId79" xr:uid="{AEBEF819-800C-49D9-B3A0-F50FD2FB4959}"/>
-    <hyperlink ref="E69" r:id="rId80" xr:uid="{7D1C4EE7-8562-4093-843F-D14D4BE56F11}"/>
-    <hyperlink ref="E68" r:id="rId81" xr:uid="{10A8674B-670E-4DDF-8027-722112B0CABF}"/>
-    <hyperlink ref="F68" r:id="rId82" xr:uid="{D3A72213-F78F-41EF-838F-75E6312AADFF}"/>
-    <hyperlink ref="E67" r:id="rId83" xr:uid="{394CF643-5103-474C-B810-ABCADAF42987}"/>
-    <hyperlink ref="E66" r:id="rId84" xr:uid="{724D7565-8777-4849-8F6D-F6E9175C0BF3}"/>
-    <hyperlink ref="F66" r:id="rId85" xr:uid="{329EEAA7-C75E-4C4C-9873-181072F1EB1C}"/>
-    <hyperlink ref="E65" r:id="rId86" xr:uid="{780B5AA0-D06B-44AC-B6E8-8535027503E3}"/>
-    <hyperlink ref="E64" r:id="rId87" xr:uid="{079A835F-46D9-4200-99F6-EE6CFDD60F74}"/>
-    <hyperlink ref="F64" r:id="rId88" xr:uid="{FF6CD418-E2F7-40CF-BD1B-A88F48533556}"/>
-    <hyperlink ref="E63" r:id="rId89" xr:uid="{0AB55A04-E16C-4421-8F07-C7C5284D2029}"/>
-    <hyperlink ref="E62" r:id="rId90" xr:uid="{7DC16B2E-9F84-4745-ACED-29898558E700}"/>
-    <hyperlink ref="F62" r:id="rId91" xr:uid="{01101C54-67D4-4626-A01C-441ADF3745A9}"/>
-    <hyperlink ref="E61" r:id="rId92" xr:uid="{4F80B5AA-3C2D-4A4C-A197-5914462E7B25}"/>
-    <hyperlink ref="F61" r:id="rId93" xr:uid="{D43EB885-544A-4630-9CAB-86F78E02943A}"/>
-    <hyperlink ref="E60" r:id="rId94" xr:uid="{C6308F68-8B2E-4EFD-9E83-91EA815E2AE7}"/>
-    <hyperlink ref="E59" r:id="rId95" xr:uid="{980BBA37-D626-416F-A772-A5438A0AF801}"/>
-    <hyperlink ref="E58" r:id="rId96" xr:uid="{DE8D4A06-5DA0-4677-A590-B31210AEE7A2}"/>
-    <hyperlink ref="E57" r:id="rId97" xr:uid="{3F0AA67A-2346-4E33-9606-47C2A00317E3}"/>
-    <hyperlink ref="F57" r:id="rId98" xr:uid="{34A67A77-9049-447E-9AA3-11121AD620EF}"/>
-    <hyperlink ref="E56" r:id="rId99" xr:uid="{28B13D4E-E90A-4DB2-84C3-A7D378194F61}"/>
-    <hyperlink ref="E55" r:id="rId100" xr:uid="{05C410EE-A52E-463E-82DD-7118FD531F97}"/>
-    <hyperlink ref="F55" r:id="rId101" xr:uid="{AB8E254A-B060-437E-8258-7DE052214DC8}"/>
-    <hyperlink ref="E54" r:id="rId102" xr:uid="{70DF4AC9-8375-4410-88D7-69C2F9C3595F}"/>
-    <hyperlink ref="F54" r:id="rId103" xr:uid="{0A2985F0-6C63-4D6C-8557-E5C98235FE0B}"/>
-    <hyperlink ref="E53" r:id="rId104" xr:uid="{0A633EC9-BEAD-4101-B369-D79337F6BCB2}"/>
-    <hyperlink ref="E52" r:id="rId105" xr:uid="{BB3BD289-BD0B-4B9D-B277-4C9EF54B5FBC}"/>
-    <hyperlink ref="E51" r:id="rId106" xr:uid="{C26945D6-C6F6-486F-834E-FFE9B127C56E}"/>
+    <hyperlink ref="E21" r:id="rId1" display="https://f12.baidu.com/it/u=273203883,1462337381&amp;fm=72"/>
+    <hyperlink ref="E23" r:id="rId2" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040003328&amp;di=5a0f4ed4bf3d79d8140f8e8e7aea1a80&amp;imgtype=0&amp;src=http%3A%2F%2Fb4-q.mafengwo.net%2Fs6%2FM00%2FE0%2F0D%2FwKgB4lJvvvyAGUiDACTyLRvKPQg21.jpeg"/>
+    <hyperlink ref="E108" r:id="rId3" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037892521&amp;di=eff8ea19469a30e75f9a187a07381c60&amp;imgtype=0&amp;src=http%3A%2F%2Fphoto.sohu.com%2F83%2F30%2FImg201653083.jpg"/>
+    <hyperlink ref="E107" r:id="rId4" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038046214&amp;di=5a115b2698adaa1b6602e167db7c9b7c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg10.360buyimg.com%2FpopWaterMark%2Fjfs%2Ft1408%2F4%2F164695253%2F303521%2F13f768fd%2F555fe39aNcb84c4f7.jpg"/>
+    <hyperlink ref="E106" r:id="rId5" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038244005&amp;di=fdc867769ac8085b901c64ae268b809a&amp;imgtype=0&amp;src=http%3A%2F%2Fl.b2b168.com%2F2019%2F02%2F25%2F15%2F201902251525046234374.jpg"/>
+    <hyperlink ref="E105" r:id="rId6" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038589288&amp;di=df994b341aa44fb619cbe56d670a9229&amp;imgtype=0&amp;src=http%3A%2F%2Ffiles.toodaylab.com%2F2014%2F08%2FAppleStore_secret_20140807012755_08.jpg"/>
+    <hyperlink ref="E104" r:id="rId7" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038891671&amp;di=feecce43e34bd9a01df53c1f5c359a00&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F16%2F08%2F23%2F2057bc41625fdd9.jpg%2521%2Ffwfh%2F804x804%2Fquality%2F90%2Funsharp%2Ftrue%2Fcompress%2Ftrue"/>
+    <hyperlink ref="E103" r:id="rId8" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039144849&amp;di=9da6cc14299916f80f65b01128dbc04b&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F16%2F06%2F23%2F17576bb0981e413.jpg"/>
+    <hyperlink ref="E102" r:id="rId9" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039391310&amp;di=87c0629c01f491d47b791d6090e804ee&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.90sjimg.com%2Fdesign%2F01%2F30%2F40%2F09%2Fs_1024_58ca2cc728552.png"/>
+    <hyperlink ref="E101" r:id="rId10" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039614890&amp;di=6be907b44c03dad3a8913d1817931b27&amp;imgtype=0&amp;src=http%3A%2F%2Fimages.xuejuzi.cn%2F1702%2F1_170212111029_1.jpg"/>
+    <hyperlink ref="E100" r:id="rId11" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039695319&amp;di=cd958e4d0acbffbb6f31ac05b87ece5d&amp;imgtype=0&amp;src=http%3A%2F%2Fp2.ifengimg.com%2Ffck%2F2017_44%2Ffadf3ff38173949_w720_h480.jpg"/>
+    <hyperlink ref="E99" r:id="rId12" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040216519&amp;di=abdc9279011661bee92138e813078ee8&amp;imgtype=0&amp;src=http%3A%2F%2Fp2.qhimg.com%2Ft01a1bc43a2ddeba8eb.jpg"/>
+    <hyperlink ref="E98" r:id="rId13" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040338919&amp;di=0244dfad2849db7ce104ef5e43fbe997&amp;imgtype=0&amp;src=http%3A%2F%2Fhbimg.b0.upaiyun.com%2F6125f48517bdc3b057b292c68119af33cbcce0dc16138-TRwUAI_fw658"/>
+    <hyperlink ref="E97" r:id="rId14" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040466310&amp;di=8a8189f848a4069863991ae498dc3ead&amp;imgtype=0&amp;src=http%3A%2F%2Fattach2.scimg.cn%2Fforum%2F201511%2F26%2F141530b5z57o751biett73.jpg"/>
+    <hyperlink ref="E96" r:id="rId15" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040716378&amp;di=4410a135d40e1622ac0a169c1a444d7e&amp;imgtype=0&amp;src=http%3A%2F%2Fimage1.suning.cn%2Fuimg%2Fb2c%2Fnewcatentries%2F0070165044-000000000640075169_1_800x800.jpg"/>
+    <hyperlink ref="E95" r:id="rId16" display="https://ss3.bdstatic.com/70cFv8Sh_Q1YnxGkpoWK1HF6hhy/it/u=1388032079,1990918474&amp;fm=26&amp;gp=0.jpg"/>
+    <hyperlink ref="E94" r:id="rId17" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041095550&amp;di=ddfb45532bdd17691648b49f6749568f&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.juimg.com%2Ftuku%2Fyulantu%2F140706%2F330708-140F614323399.jpg"/>
+    <hyperlink ref="E93" r:id="rId18" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041370276&amp;di=3bb52106fe7622ced02f7ca653951d8b&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.gtimg.com%2Fsports%2Fpics%2Fhv1%2F120%2F182%2F2285%2F148628655.jpg"/>
+    <hyperlink ref="E92" r:id="rId19" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041490988&amp;di=3583d01f97629799e10ec7c7d8ce289f&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.t-biao.com%2FtubiaoaHR0cHM6Ly9pbWcuYWxpY2RuLmNvbS90ZnNjb20vaTEvMjg1MTU2NzkyNC9UQjJzYkYxa2RGb3B1RmpTWkZIWFhiU2xYWGFfISEyODUxNTY3OTI0JDk.jpg"/>
+    <hyperlink ref="E91" r:id="rId20" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563636281&amp;di=af9a0214b6558c66bfa89c40c87e5de9&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fs11.sinaimg.cn%2Fmw690%2F005NJY58zy7ep6lwDkm5a%26amp%3B690"/>
+    <hyperlink ref="E90" r:id="rId21" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041794404&amp;di=0a0c11c5830dcb514ca8674653682395&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FuiaJZ8mDjtLsfHGyJuficS7JxuvQuickicibk3Gf5uaiaBjHvVYjKaF2tqXMsKQMX9icWUjmLozibL3Tw79EojkudIqqow%2F640%3Fwx_fmt%3Djpeg"/>
+    <hyperlink ref="E89" r:id="rId22" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041830764&amp;di=652478b8373791a6f3253ce97060455d&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201611%2F08%2F20161108100534_kWGmY.jpeg"/>
+    <hyperlink ref="E88" r:id="rId23" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041920588&amp;di=0a121b2e23e8bddbe756b57ec5ad0144&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F03%2F74%2F14%2F5bf38b1b8a6f4_610.jpg"/>
+    <hyperlink ref="E87" r:id="rId24" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042062904&amp;di=c26596bf5bb690b8d18e11ac2e565fd9&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.mp.itc.cn%2Fupload%2F20161116%2F888ad559a91e47529566b4f7cee43010_th.jpg"/>
+    <hyperlink ref="E86" r:id="rId25" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042168383&amp;di=8a7738ac73d024b11f7cd9dfb80d0243&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.yjsmodel.com%2Fbookpic%2F20113112182517580.jpg"/>
+    <hyperlink ref="E85" r:id="rId26" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042229191&amp;di=ca034a51562ecc2cd214c60fbafdec02&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F16%2F11%2F25%2F8de78bd322aaa40524a1d32903bcc440.jpg"/>
+    <hyperlink ref="E84" r:id="rId27" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042321443&amp;di=e3f004cd44f0e9b72fd2311671b43b8a&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F18%2F01%2F25%2Fa1c4b8bdc908582dfc02ec06b42452c6.jpg%2521%2Ffwfh%2F804x819%2Fquality%2F90%2Funsharp%2Ftrue%2Fcompress%2Ftrue"/>
+    <hyperlink ref="E83" r:id="rId28" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042607884&amp;di=a344cf03c078bc4ddcb51f79389b2859&amp;imgtype=0&amp;src=http%3A%2F%2Fimg3.qjy168.com%2Fprovide%2F2016%2F02%2F04%2F6065074_20160204091410.JPG"/>
+    <hyperlink ref="E82" r:id="rId29" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042711843&amp;di=624541e92e1234a8c2f553311fa00d84&amp;imgtype=0&amp;src=http%3A%2F%2Fimg4q.duitang.com%2Fuploads%2Fitem%2F201505%2F02%2F20150502160543_5PTfa.thumb.700_0.jpeg"/>
+    <hyperlink ref="F111" r:id="rId30" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037029237&amp;di=178f4a15213c3bfe9bee200a903f93af&amp;imgtype=0&amp;src=http%3A%2F%2Fimg4q.duitang.com%2Fuploads%2Fitem%2F201410%2F20%2F20141020212114_4UA8C.jpeg"/>
+    <hyperlink ref="F110" r:id="rId31" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037215289&amp;di=e75f11bb17d1df0b9a5469a153ed094f&amp;imgtype=0&amp;src=http%3A%2F%2Fimages.yiwufair.com%2FProductImage%2F2012%2F08%2F451130161726351.jpg"/>
+    <hyperlink ref="F109" r:id="rId32" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037360444&amp;di=9f4624e63dd1fb8be0b29a3dcd2b5e26&amp;imgtype=0&amp;src=http%3A%2F%2Fimg010.hc360.cn%2Fg3%2FM06%2F21%2FEB%2FwKhQvVKggQmEDSrcAAAAAA5LV44299.jpg"/>
+    <hyperlink ref="F108" r:id="rId33" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037938085&amp;di=52ae8e954e013b3f98e72d1376fc8cdd&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fq_70%2Cc_zoom%2Cw_640%2Fimages%2F20171210%2Fbbede55cf86f4b01b7888442f0081f94.jpeg"/>
+    <hyperlink ref="F107" r:id="rId34" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038083578&amp;di=4442a439ca032ddb18b8958f1cfaf6d6&amp;imgtype=0&amp;src=http%3A%2F%2Fpic15.nipic.com%2F20110629%2F3970232_211356228000_2.jpg"/>
+    <hyperlink ref="F106" r:id="rId35" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038289956&amp;di=821e388ffc6ea03685308a5fdeb36d20&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.juimg.com%2Ftuku%2Fyulantu%2F121211%2F267866-12121115203282.jpg"/>
+    <hyperlink ref="F105" r:id="rId36" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038656219&amp;di=5c88d8db1cabc7d5a4b5d4e972138131&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft166%2F364%2F1241533827%2F129635%2Fe70a63f2%2F53a7f115N97cb5c4a.jpg%2521q70.jpg"/>
+    <hyperlink ref="F104" r:id="rId37" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038989487&amp;di=7b7f9746308d30f2e56d0ad0d6967b1c&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F43%2F18%2F59277f5f938c8_610.jpg"/>
+    <hyperlink ref="F103" r:id="rId38" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039192194&amp;di=937ff6aa613b78686d497d3f78392147&amp;imgtype=0&amp;src=http%3A%2F%2Fpic64.nipic.com%2Ffile%2F20150417%2F20800794_151641392000_2.jpg"/>
+    <hyperlink ref="F102" r:id="rId39" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039577012&amp;di=cca0e8e51a4f297f2ff32bdf36f8a35e&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft199%2F362%2F807137060%2F198346%2F12026748%2F53994ac6N6dfc32fa.jpg%2521q70.jpg"/>
+    <hyperlink ref="F100" r:id="rId40" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039888822&amp;di=64aa0fde188ec26fa385039ca4443d2c&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F02%2F07%2F27%2F599e4077ea95a_610.jpg"/>
+    <hyperlink ref="F98" r:id="rId41" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040380458&amp;di=80f3b68bbc3ea67b68e0afd9fc3679d5&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.juimg.com%2F180410%2F330863-1P410215R924.jpg"/>
+    <hyperlink ref="F97" r:id="rId42" display="https://ss1.bdstatic.com/70cFuXSh_Q1YnxGkpoWK1HF6hhy/it/u=3650368633,181425310&amp;fm=26&amp;gp=0.jpg"/>
+    <hyperlink ref="F96" r:id="rId43" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040816418&amp;di=26bf4088015dea43b01f768e4d38442f&amp;imgtype=0&amp;src=http%3A%2F%2Fpic6.58cdn.com.cn%2Fzhuanzh%2Fn_v267e3cf2d805e454ca920f51a7bd2d688.jpg%3Fw%3D750%26h%3D0"/>
+    <hyperlink ref="F95" r:id="rId44" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041067399&amp;di=a43e7666a602dad36a23d46a4c9ffafa&amp;imgtype=0&amp;src=http%3A%2F%2Fimgditan2011.cang.com%2F200905%2F29%2F20090529182716250.jpg"/>
+    <hyperlink ref="F91" r:id="rId45" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563041693772&amp;di=19e8afbb7ca5d67cb900101f23b4a04f&amp;imgtype=0&amp;src=http%3A%2F%2Fs9.sinaimg.cn%2Fbmiddle%2F41448e9b4439697f23f18"/>
+    <hyperlink ref="F88" r:id="rId46" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042005480&amp;di=6fe8dd92cd41d87de79565bf10d8a66d&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2F1wU5gicP6sk0z6ZfibG7gdjotZm1lVzh3TGuGIblhe1rt5CvI2pAA2JGY5KRWnrUxIYWNC3AJVQQMEXRiaAibSglbQ%2F640%3Fwx_fmt%3Djpeg"/>
+    <hyperlink ref="F87" r:id="rId47" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042137751&amp;di=d0f7423d899add180c4243005d42d644&amp;imgtype=jpg&amp;src=http%3A%2F%2Fmpic.tiankong.com%2F7c5%2Fad1%2F7c5ad1e52639f25fc60e6b7908a03a07%2F640.jpg%40!670w"/>
+    <hyperlink ref="F86" r:id="rId48" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042198676&amp;di=82e3aa9841d26fbe449266501207867b&amp;imgtype=0&amp;src=http%3A%2F%2Fpic2.16pic.com%2F00%2F21%2F57%2F16pic_2157388_b.jpg"/>
+    <hyperlink ref="F85" r:id="rId49" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563636962&amp;di=3a3408d2a1c38bfa7af7ad31c726c5d9&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fq_70%2Cc_zoom%2Cw_640%2Fimages%2F20171230%2F3cc5ef19518f4200a1815419ce32c302.jpeg"/>
+    <hyperlink ref="F84" r:id="rId50" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563042495054&amp;di=187026684a43ac17c9e0d90028809f80&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F16%2F08%2F28%2F1257c264eb9fe41.jpg"/>
+    <hyperlink ref="G110" r:id="rId51" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037235537&amp;di=1a2e41407736b32ca5c4485c096a30af&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft1348%2F23%2F245465528%2F131060%2F5b861dc9%2F556973b6N20d3889e.jpg%2521q70.jpg"/>
+    <hyperlink ref="G109" r:id="rId52" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037479046&amp;di=0969436f9a8daea7915fb7630e0c6ec8&amp;imgtype=0&amp;src=http%3A%2F%2Fshop.r10s.jp%2Fselect-tool%2Fcabinet%2Ffujiwara%2F11%2F4977292890090.jpg"/>
+    <hyperlink ref="G108" r:id="rId53" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563037962261&amp;di=ee58f6f2eb1027dd9d43e5599511b6fd&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20170924%2F2d787bf603ad4d16827219e1d558a1d8.jpeg"/>
+    <hyperlink ref="G107" r:id="rId54" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038196455&amp;di=a351c068cdbc4fa3801ef9d73e2ccc95&amp;imgtype=0&amp;src=http%3A%2F%2Fimages.onccc.com%2Fi003%2F2014%2F07%2F21%2F85%2Fbig_700d6d8513095db0a65ad48ef3062c71.JPG"/>
+    <hyperlink ref="G106" r:id="rId55" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038536443&amp;di=5dec03fd2c55198f12ebc2c529abc072&amp;imgtype=0&amp;src=http%3A%2F%2Fn.sinaimg.cn%2Fsinacn15%2F50%2Fw1080h570%2F20180726%2F8d7e-hfvkitx0982483.jpg"/>
+    <hyperlink ref="G105" r:id="rId56" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563038736062&amp;di=cc2887a29cb2c45a830b5c0bcbbbabd7&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.t-jiaju.com%2FtujjJDEwLmFsaWNkbi5jb20vaTMvNDE0MjI4MDA0L1RCMjVHV1BYSWdkNjFCalNaRmpYWGJYc3BYYV8hITQxNDIyODAwNCQ5.jpg"/>
+    <hyperlink ref="G104" r:id="rId57" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039040226&amp;di=463aba1e8ad9f92caef3a9af8c4868a9&amp;imgtype=0&amp;src=http%3A%2F%2Fpica.nipic.com%2F2008-06-11%2F2008611115712882_2.jpg"/>
+    <hyperlink ref="G103" r:id="rId58" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563039302224&amp;di=2f50f01fc82ea815f64d408fbc6f2288&amp;imgtype=0&amp;src=http%3A%2F%2Fimg3.redocn.com%2F20110302%2F20110301_b1f1adbef7bfc3cd18a7elrGNi261wi7.jpg"/>
+    <hyperlink ref="G100" r:id="rId59" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563040039484&amp;di=a47d31e729c0694abdb7359bbe6db806&amp;imgtype=0&amp;src=http%3A%2F%2F58pic.ooopic.com%2F58pic%2F18%2F85%2F13%2F565608182ad5c.jpg"/>
+    <hyperlink ref="E81" r:id="rId60" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105303707&amp;di=afc28afe82cade8e3f7bc069a8673485&amp;imgtype=0&amp;src=http%3A%2F%2Fdpic.tiankong.com%2Fka%2Fes%2FQJ6440380497.jpg"/>
+    <hyperlink ref="F81" r:id="rId61" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105406984&amp;di=7947eb3452504b7a6325e10d7949e623&amp;imgtype=0&amp;src=http%3A%2F%2Fpic3.16pic.com%2F00%2F07%2F65%2F16pic_765044_b.jpg"/>
+    <hyperlink ref="G81" r:id="rId62" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105442663&amp;di=2a9f1599e1fad9b16b9ac8f5f58abfdb&amp;imgtype=0&amp;src=http%3A%2F%2Fpic3.16pic.com%2F00%2F07%2F65%2F16pic_765068_b.jpg"/>
+    <hyperlink ref="E80" r:id="rId63" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105490878&amp;di=7630ba5af958ecef26cb2559bcdedc27&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201801%2F31%2F20180131225903_4skzR.jpeg"/>
+    <hyperlink ref="F80" r:id="rId64" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105482285&amp;di=8855fc0c3abfa4eb6a5c02ea90d68b57&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.zcool.cn%2Fcommunity%2F010086554418a20000019ae92dbe14.jpg"/>
+    <hyperlink ref="E79" r:id="rId65" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563105965955&amp;di=e0c84accee2fa3a92c5bd8067ef57670&amp;imgtype=0&amp;src=http%3A%2F%2Fn.sinaimg.cn%2Fsinacn10%2F400%2Fw600h600%2F20180914%2F7854-hiixpun8848807.gif"/>
+    <hyperlink ref="E78" r:id="rId66" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106233050&amp;di=98027ae1f8b36cff810e0b2d8cf8650a&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.chinaadec.com%2FUploadFile%2Fimage%2F20150330%2F20150330163632_803.jpg"/>
+    <hyperlink ref="E77" r:id="rId67" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106334345&amp;di=b37f9405eabbc7637021f900961f59ed&amp;imgtype=0&amp;src=http%3A%2F%2Fimg002.hc360.cn%2Fk3%2FM01%2FB6%2FC3%2FwKhQx1jPt8yECeUZAAAAALlh7RE115.jpg"/>
+    <hyperlink ref="E76" r:id="rId68" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106412185&amp;di=ff466f1c93837f858b1643dbeb40b326&amp;imgtype=0&amp;src=http%3A%2F%2Fwww.artsbj.com%2FUploadFiles%2F2015-04%2Fwyw%2F201504231543129153.png"/>
+    <hyperlink ref="E75" r:id="rId69" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106535973&amp;di=f633527eeae4088b28ccf22195338ee9&amp;imgtype=0&amp;src=http%3A%2F%2Fimg2.myhsw.cn%2F2015-06-28%2Fz0b95c7p.jpg"/>
+    <hyperlink ref="E74" r:id="rId70" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106642605&amp;di=5ea7cae9f75bec23addf5fab5257b1ad&amp;imgtype=0&amp;src=http%3A%2F%2Fi05.cztv.com%2Fcztv%2Fvms%2F2018%2F01%2F17%2F0e51e421ab784064bc58f1f8d9367117%2F8_640_400.jpg"/>
+    <hyperlink ref="F74" r:id="rId71" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106703136&amp;di=6a1e43e9a0e8636db2c4b6a017cf7f7a&amp;imgtype=0&amp;src=http%3A%2F%2Fb-ssl.duitang.com%2Fuploads%2Fitem%2F201512%2F26%2F20151226193012_wez28.thumb.700_0.jpeg"/>
+    <hyperlink ref="E73" r:id="rId72" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106743512&amp;di=519c8687e8a8d0e9123f1699c31952ae&amp;imgtype=0&amp;src=http%3A%2F%2Fs11.sinaimg.cn%2Fmw690%2F002xnc8Szy77NrBHbZ04a%26690"/>
+    <hyperlink ref="F73" r:id="rId73" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106840408&amp;di=d485dbdaa86fde56f08eea73cb040c33&amp;imgtype=0&amp;src=http%3A%2F%2Fp0.meituan.net%2Fdeal%2F__32762284__9238474.jpg"/>
+    <hyperlink ref="E72" r:id="rId74" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106884688&amp;di=e2ae584e2805a5210437f67625a4d5fa&amp;imgtype=0&amp;src=http%3A%2F%2Fmmbiz.qpic.cn%2Fmmbiz_jpg%2FU7XDdXj97GugEOutAjLTRsia6jhPmME35goauTpkSEDlJ9iatZ7kqp7dOZDDQWUVlwHMwgfU5HuOO8yjWWrQCNSw%2F640%3Fwx_fmt%3Djpeg"/>
+    <hyperlink ref="F72" r:id="rId75" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106927988&amp;di=23a660d1e8a8c31b6552c5c66272933c&amp;imgtype=0&amp;src=http%3A%2F%2Fimage.game.uc.cn%2F2013%2F8%2F9%2F9289511.jpg"/>
+    <hyperlink ref="E71" r:id="rId76" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563106975799&amp;di=8d94162f17d58a84d89aeecf379a4f1c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.gtimg.com%2Frushidao%2Fpics%2Fhv1%2F81%2F21%2F1466%2F95332086.jpg"/>
+    <hyperlink ref="F71" r:id="rId77" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107007195&amp;di=907862e921eac9c201da3d6c47ab4f57&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.ooopic.com%2F17%2F01%2F99%2F17019900-93b38a908214274d132052cc639edbdd.jpg"/>
+    <hyperlink ref="E70" r:id="rId78" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107037950&amp;di=342aca65ce3135b6132af7fcc008ea5c&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F17%2F11%2F14%2F95890e982f5da0a5e37777195a5c8018.jpg"/>
+    <hyperlink ref="F70" r:id="rId79" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107083419&amp;di=be8c7c9c9432c7bed5a9b6d78e41fa0d&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F16%2F08%2F11%2F1757ac4225aa35b.jpg"/>
+    <hyperlink ref="E69" r:id="rId80" display="https://ss1.bdstatic.com/70cFvXSh_Q1YnxGkpoWK1HF6hhy/it/u=1947783256,3643699783&amp;fm=26&amp;gp=0.jpg"/>
+    <hyperlink ref="E68" r:id="rId81" display="https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=681294974,3020569936&amp;fm=26&amp;gp=0.jpg"/>
+    <hyperlink ref="F68" r:id="rId82" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107248961&amp;di=2e01d168d1f24eeed6a5a591f7620a36&amp;imgtype=0&amp;src=http%3A%2F%2Fm.360buyimg.com%2Fn12%2Fjfs%2Ft1267%2F65%2F140049916%2F283105%2F3e2f25be%2F55030a7eN06945216.jpg%2521q70.jpg"/>
+    <hyperlink ref="E67" r:id="rId83" display="https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=799296892,927384394&amp;fm=26&amp;gp=0.jpg"/>
+    <hyperlink ref="E66" r:id="rId84" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107375122&amp;di=d21f09dcc284b2a85a5d30e2aa1a906e&amp;imgtype=jpg&amp;src=http%3A%2F%2Fimg0.imgtn.bdimg.com%2Fit%2Fu%3D1041083175%2C2440403865%26fm%3D214%26gp%3D0.jpg"/>
+    <hyperlink ref="F66" r:id="rId85" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107412048&amp;di=0a7634fd27179c849dc2b5fe8d605dbc&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F60%2F28%2F594d7147cb2cc_610.jpg"/>
+    <hyperlink ref="E65" r:id="rId86" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563702206&amp;di=88a3f9d05e805d67a057687c4fa37052&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fwww.centralsolomon.com%2Fimages%2FTB16HrqFFXXXXajapXXXXXXXXXX_%21%210-item_pic.jpg_500x500.jpg"/>
+    <hyperlink ref="E64" r:id="rId87" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107580001&amp;di=3a31b98ce663d51d01b74ad0e8b1de27&amp;imgtype=jpg&amp;src=http%3A%2F%2Fimg3.imgtn.bdimg.com%2Fit%2Fu%3D3131950238%2C3676379902%26fm%3D214%26gp%3D0.jpg"/>
+    <hyperlink ref="F64" r:id="rId88" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107641627&amp;di=d89960e529a964da7f3c179c5c33b831&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.99114.com%2Fgroup1%2FM00%2F09%2F34%2FwKgGTFWWcneAHDCuAAI_vaXgugM426.jpg"/>
+    <hyperlink ref="E63" r:id="rId89" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107695311&amp;di=20ab060afd8f651a4388bc420d84e6a2&amp;imgtype=0&amp;src=http%3A%2F%2Fpic2.16pic.com%2F00%2F11%2F97%2F16pic_1197205_b.jpg"/>
+    <hyperlink ref="E62" r:id="rId90" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107873613&amp;di=a547fe4719a48caa11545d442e8afbd2&amp;imgtype=0&amp;src=http%3A%2F%2Ffile03.sg560.com%2Fupimg01%2F2016%2F03%2F602717%2FTitle%2F1852457152621241602717.jpg"/>
+    <hyperlink ref="F62" r:id="rId91" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563702670&amp;di=5e54f6e7032bfde5afdcd415ac4b19e6&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fwww.epdsw.cn%2Fuploadfile%2Farticle%2F2014917223430182393.png"/>
+    <hyperlink ref="E61" r:id="rId92" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563107995829&amp;di=27952a059960b67db915bf02aad74639&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.90sjimg.com%2Fdesign%2F01%2F45%2F68%2F00%2F594795c06bbbe.png"/>
+    <hyperlink ref="F61" r:id="rId93" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108081633&amp;di=3f989015863f0fc39c60b14edcc9d15b&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F03%2F94%2F39%2F9357da8d4483b91.jpg"/>
+    <hyperlink ref="E60" r:id="rId94" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108191993&amp;di=1098456fed7fd770cb2f27c12deeb06e&amp;imgtype=0&amp;src=http%3A%2F%2Fcms-bucket.nosdn.127.net%2Fa37aade4ee434aef8f993fd5d935479620180130113511.gif"/>
+    <hyperlink ref="E59" r:id="rId95" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108252943&amp;di=3748288c1428e02886680465f07ef0dc&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.zcool.cn%2Fcommunity%2F01788a55c6e4256ac72558086b6bba.gif"/>
+    <hyperlink ref="E58" r:id="rId96" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108315615&amp;di=5685107ceb4c0278856e53e40c9bc15e&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20170917%2Fffd4639e99cb42e0afc010e96b7e1d8f.gif"/>
+    <hyperlink ref="E57" r:id="rId97" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108532158&amp;di=ed3ac4c63dd43b8074a0553afd9ec3a5&amp;imgtype=0&amp;src=http%3A%2F%2Fku.90sjimg.com%2Felement_origin_min_pic%2F17%2F07%2F15%2F81e8a951da00cda7511ddea081310133.jpg"/>
+    <hyperlink ref="F57" r:id="rId98" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108609748&amp;di=1632fb568088ab3a1c0a51df3ab841fb&amp;imgtype=0&amp;src=http%3A%2F%2Fimg.redocn.com%2Fsheying%2F20150309%2Flinhaixueyuanxiaohuoche_3984146.jpg"/>
+    <hyperlink ref="E56" r:id="rId99" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108736887&amp;di=f08bd2b4d7e723f1a7e677e82266fe32&amp;imgtype=0&amp;src=http%3A%2F%2F5b0988e595225.cdn.sohucs.com%2Fimages%2F20180703%2F614751b867a14136a1d49207b266667b.gif"/>
+    <hyperlink ref="E55" r:id="rId100" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108859181&amp;di=261246f4b6ef0b6b5970112a4fa11bda&amp;imgtype=0&amp;src=http%3A%2F%2Fs16.sinaimg.cn%2Fbmiddle%2F002aZGGXzy71cX9xc7l9f%26690"/>
+    <hyperlink ref="F55" r:id="rId101" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563108941567&amp;di=85910fee2957e93929465ec334f57baf&amp;imgtype=0&amp;src=http%3A%2F%2Fpic.51yuansu.com%2Fpic3%2Fcover%2F01%2F40%2F88%2F592741db899cb_610.jpg"/>
+    <hyperlink ref="E54" r:id="rId102" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109047550&amp;di=c2f004c250183d769f31779b95830cbb&amp;imgtype=0&amp;src=http%3A%2F%2Fimg14.360buyimg.com%2FpopWaterMark%2Fjfs%2Ft640%2F152%2F309508195%2F397968%2Fd21d77af%2F545c8e50Nf1cf5007.jpg"/>
+    <hyperlink ref="F54" r:id="rId103" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109094517&amp;di=9c8f16ea20a9bcadc31f106f1430d06c&amp;imgtype=0&amp;src=http%3A%2F%2Fimg1.windmsn.com%2Fb%2F2%2F287%2F28788%2F2878813.jpg"/>
+    <hyperlink ref="E53" r:id="rId104" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109160766&amp;di=f73736c769a72ee245b84e20d9fbcc2b&amp;imgtype=0&amp;src=http%3A%2F%2Fbpic.588ku.com%2Felement_origin_min_pic%2F17%2F12%2F25%2F61633d307b83d4ca3184e4140cf10e85.jpg"/>
+    <hyperlink ref="E52" r:id="rId105" display="https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1563109244470&amp;di=3f78400c7c90918671ff4fff271c0217&amp;imgtype=0&amp;src=http%3A%2F%2Fww1.sinaimg.cn%2Flarge%2F87eee656jw1ezkfsaskwoj21kw11sh08.jpg"/>
+    <hyperlink ref="E51" r:id="rId106" display="https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=3118097342,891277758&amp;fm=26&amp;gp=0.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>